--- a/extensions/nist/sp800-53r5-control-catalog-d3fend-mapping.xlsx
+++ b/extensions/nist/sp800-53r5-control-catalog-d3fend-mapping.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smithmj/github/d3fend-ontology/extensions/cci/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F366DFA-A40A-8340-A0EA-0D2206A4B99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D59CD8-960E-524D-9899-8DA2E8755B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1360" windowWidth="52120" windowHeight="19200" activeTab="1" xr2:uid="{FE15C643-F9C8-496B-8AFB-C7907059EBDA}"/>
+    <workbookView xWindow="-17300" yWindow="1680" windowWidth="53600" windowHeight="19460" activeTab="1" xr2:uid="{FE15C643-F9C8-496B-8AFB-C7907059EBDA}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard views" sheetId="4" r:id="rId1"/>
@@ -18,12 +13,12 @@
     <sheet name="types" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SP 800-53 Revision 5--d3fend'!$E$1:$E$1190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SP 800-53 Revision 5--d3fend'!$A$1:$K$1190</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'SP 800-53 Revision 5--d3fend'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,39 +33,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={A7B23C8B-7620-F94F-8C57-123770E9FFED}</author>
-    <author>tc={70F2531C-B9D1-3F45-93CD-7BABC2F924D7}</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A7B23C8B-7620-F94F-8C57-123770E9FFED}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    technical or policy @Chris Thorpe
-</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{70F2531C-B9D1-3F45-93CD-7BABC2F924D7}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    @Chris Thorpe can you add this field for each mapping. 
-[broader, narrower, exactly]
-It reads:
-this NIST Control is broader than this D3-Technique
-Reply:
-    Sounds good</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{373FF4F7-F79E-4DDF-BAE5-974E6E0B2219}" name="NIST_SP-800-53_rev5_catalog-flat" type="4" refreshedVersion="0" background="1">
@@ -80,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5857" uniqueCount="4019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5857" uniqueCount="4017">
   <si>
     <t>AC-1</t>
   </si>
@@ -11864,9 +11826,6 @@
     <t>D3-MAN | D3-DLIC</t>
   </si>
   <si>
-    <t>Technical</t>
-  </si>
-  <si>
     <t>D3-ACH</t>
   </si>
   <si>
@@ -11886,9 +11845,6 @@
   </si>
   <si>
     <t>exactly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type </t>
   </si>
   <si>
     <t>D3-UAP</t>
@@ -16046,16 +16002,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Chris Thorpe" id="{5FC5831C-6E1D-4548-9320-E25DD696A174}" userId="CTHORPE@MITRE.ORG" providerId="PeoplePicker"/>
-  <person displayName="Chris Thorpe" id="{9CBA3C7C-56D3-F349-9954-580CEE59CC9F}" userId="S::cthorpe@mitre.org::21530a8f-3f65-4af2-b37f-97b9fece114b" providerId="AD"/>
-  <person displayName="Peter E Kaloroumakis" id="{0423C9AE-8BE3-AD42-9E58-5BE8DA8A7196}" userId="S::pkaloroumakis@mitre.org::252b0173-aa1e-4b0b-9732-ef19b33d7db9" providerId="AD"/>
-</personList>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44714.549824305555" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="1190" xr:uid="{DE841DF4-A0A7-2E42-BCBC-BE22686E149E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Author" refreshedDate="44714.549824305555" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="1190" xr:uid="{DE841DF4-A0A7-2E42-BCBC-BE22686E149E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E1048576" sheet="SP 800-53 Revision 5--d3fend"/>
   </cacheSource>
@@ -24480,7 +24428,146 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EAE384CF-4159-C34F-8080-43E86E77E757}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C14FD96E-7769-1346-9FCE-BC01834C80CA}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A12:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Relation" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA8B547F-AF08-EC47-8A58-342D36CF2594}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item m="1" x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Type" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EAE384CF-4159-C34F-8080-43E86E77E757}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A21:B69" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -24697,145 +24784,6 @@
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C14FD96E-7769-1346-9FCE-BC01834C80CA}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A12:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Relation" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA8B547F-AF08-EC47-8A58-342D36CF2594}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Type" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -25152,31 +25100,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C1" dT="2022-02-28T15:56:49.17" personId="{0423C9AE-8BE3-AD42-9E58-5BE8DA8A7196}" id="{A7B23C8B-7620-F94F-8C57-123770E9FFED}">
-    <text xml:space="preserve">technical or policy @Chris Thorpe
-</text>
-    <mentions>
-      <mention mentionpersonId="{5FC5831C-6E1D-4548-9320-E25DD696A174}" mentionId="{C9B5E102-D749-8841-92D5-C4F870D153D3}" startIndex="20" length="13"/>
-    </mentions>
-  </threadedComment>
-  <threadedComment ref="E1" dT="2022-02-28T15:57:50.40" personId="{0423C9AE-8BE3-AD42-9E58-5BE8DA8A7196}" id="{70F2531C-B9D1-3F45-93CD-7BABC2F924D7}">
-    <text xml:space="preserve">@Chris Thorpe can you add this field for each mapping. 
-[broader, narrower, exactly]
-It reads:
-this NIST Control is broader than this D3-Technique
-</text>
-    <mentions>
-      <mention mentionpersonId="{5FC5831C-6E1D-4548-9320-E25DD696A174}" mentionId="{BDC1CEE8-F096-3040-8319-BCA02CAB765B}" startIndex="0" length="13"/>
-    </mentions>
-  </threadedComment>
-  <threadedComment ref="E1" dT="2022-03-03T19:25:34.60" personId="{9CBA3C7C-56D3-F349-9954-580CEE59CC9F}" id="{C8512F4F-06E4-5941-A50F-72C1F1BEB3ED}" parentId="{70F2531C-B9D1-3F45-93CD-7BABC2F924D7}">
-    <text>Sounds good</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82EEA6B-DBB9-A54D-A742-B63A0EE28948}">
   <dimension ref="A3:B69"/>
@@ -25202,15 +25125,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>3948</v>
+        <v>3946</v>
       </c>
       <c r="B3" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
       <c r="B4" s="16">
         <v>2</v>
@@ -25234,13 +25157,13 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>3949</v>
+        <v>3947</v>
       </c>
       <c r="B7" s="16"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>3950</v>
+        <v>3948</v>
       </c>
       <c r="B8" s="16">
         <v>522</v>
@@ -25248,10 +25171,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>3948</v>
+        <v>3946</v>
       </c>
       <c r="B12" t="s">
-        <v>3951</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -25264,7 +25187,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="B14" s="16">
         <v>10</v>
@@ -25272,7 +25195,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="B15" s="16">
         <v>72</v>
@@ -25280,13 +25203,13 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>3949</v>
+        <v>3947</v>
       </c>
       <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="B17" s="16">
         <v>1</v>
@@ -25294,7 +25217,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>3950</v>
+        <v>3948</v>
       </c>
       <c r="B18" s="16">
         <v>102</v>
@@ -25302,15 +25225,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>3948</v>
+        <v>3946</v>
       </c>
       <c r="B21" t="s">
-        <v>3952</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="B22" s="16">
         <v>1</v>
@@ -25326,7 +25249,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="B24" s="16">
         <v>2</v>
@@ -25334,7 +25257,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
       <c r="B25" s="16">
         <v>1</v>
@@ -25342,7 +25265,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>3925</v>
+        <v>3923</v>
       </c>
       <c r="B26" s="16">
         <v>1</v>
@@ -25350,7 +25273,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
       <c r="B27" s="16">
         <v>11</v>
@@ -25358,7 +25281,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
       <c r="B28" s="16">
         <v>10</v>
@@ -25366,7 +25289,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
       <c r="B29" s="16">
         <v>10</v>
@@ -25374,7 +25297,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="B30" s="16">
         <v>1</v>
@@ -25382,7 +25305,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="B31" s="16">
         <v>6</v>
@@ -25390,7 +25313,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>3908</v>
+        <v>3906</v>
       </c>
       <c r="B32" s="16">
         <v>1</v>
@@ -25398,7 +25321,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
-        <v>3911</v>
+        <v>3909</v>
       </c>
       <c r="B33" s="16">
         <v>1</v>
@@ -25406,7 +25329,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
-        <v>3905</v>
+        <v>3903</v>
       </c>
       <c r="B34" s="16">
         <v>1</v>
@@ -25430,7 +25353,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
-        <v>3942</v>
+        <v>3940</v>
       </c>
       <c r="B37" s="16">
         <v>1</v>
@@ -25438,7 +25361,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>3944</v>
+        <v>3942</v>
       </c>
       <c r="B38" s="16">
         <v>6</v>
@@ -25446,7 +25369,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
       <c r="B39" s="16">
         <v>6</v>
@@ -25454,7 +25377,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>3940</v>
+        <v>3938</v>
       </c>
       <c r="B40" s="16">
         <v>2</v>
@@ -25462,7 +25385,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
       <c r="B41" s="16">
         <v>4</v>
@@ -25470,7 +25393,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="B42" s="16">
         <v>551</v>
@@ -25478,13 +25401,13 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>3949</v>
+        <v>3947</v>
       </c>
       <c r="B43" s="16"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
-        <v>3953</v>
+        <v>3951</v>
       </c>
       <c r="B44" s="16">
         <v>2</v>
@@ -25492,7 +25415,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="B45" s="16">
         <v>2</v>
@@ -25500,7 +25423,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
       <c r="B46" s="16">
         <v>1</v>
@@ -25508,7 +25431,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
       <c r="B47" s="16">
         <v>1</v>
@@ -25516,7 +25439,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
       <c r="B48" s="16">
         <v>1</v>
@@ -25524,7 +25447,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
       <c r="B49" s="16">
         <v>1</v>
@@ -25532,7 +25455,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
       <c r="B50" s="16">
         <v>1</v>
@@ -25540,7 +25463,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
-        <v>3974</v>
+        <v>3972</v>
       </c>
       <c r="B51" s="16">
         <v>1</v>
@@ -25548,7 +25471,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
-        <v>3975</v>
+        <v>3973</v>
       </c>
       <c r="B52" s="16">
         <v>3</v>
@@ -25556,7 +25479,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
       <c r="B53" s="16">
         <v>3</v>
@@ -25564,7 +25487,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
-        <v>3983</v>
+        <v>3981</v>
       </c>
       <c r="B54" s="16">
         <v>2</v>
@@ -25572,7 +25495,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
-        <v>3982</v>
+        <v>3980</v>
       </c>
       <c r="B55" s="16">
         <v>2</v>
@@ -25580,7 +25503,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
-        <v>3989</v>
+        <v>3987</v>
       </c>
       <c r="B56" s="16">
         <v>2</v>
@@ -25588,7 +25511,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
-        <v>3991</v>
+        <v>3989</v>
       </c>
       <c r="B57" s="16">
         <v>5</v>
@@ -25596,7 +25519,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
-        <v>3993</v>
+        <v>3991</v>
       </c>
       <c r="B58" s="16">
         <v>2</v>
@@ -25604,7 +25527,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
-        <v>3995</v>
+        <v>3993</v>
       </c>
       <c r="B59" s="16">
         <v>1</v>
@@ -25612,7 +25535,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
-        <v>3997</v>
+        <v>3995</v>
       </c>
       <c r="B60" s="16">
         <v>1</v>
@@ -25620,7 +25543,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="B61" s="16">
         <v>3</v>
@@ -25628,7 +25551,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
       <c r="B62" s="16">
         <v>2</v>
@@ -25636,7 +25559,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="B63" s="16">
         <v>2</v>
@@ -25644,7 +25567,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="B64" s="16">
         <v>2</v>
@@ -25652,7 +25575,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="B65" s="16">
         <v>1</v>
@@ -25660,7 +25583,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="B66" s="16">
         <v>1</v>
@@ -25668,7 +25591,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="18" t="s">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="B67" s="16">
         <v>1</v>
@@ -25676,7 +25599,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="18" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
       <c r="B68" s="16">
         <v>1</v>
@@ -25684,7 +25607,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
-        <v>3950</v>
+        <v>3948</v>
       </c>
       <c r="B69" s="16">
         <v>669</v>
@@ -25697,15 +25620,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K1190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A512" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E515" sqref="E515"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I261" sqref="I261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25724,7 +25647,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>4018</v>
+        <v>4016</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>3882</v>
@@ -25736,13 +25659,13 @@
         <v>3885</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>4016</v>
+        <v>4014</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>4015</v>
+        <v>4013</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>3883</v>
@@ -25870,7 +25793,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="5" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -25917,7 +25840,7 @@
         <v>3888</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -25940,10 +25863,10 @@
         <v>3887</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>2346</v>
@@ -25963,7 +25886,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>3904</v>
+        <v>3902</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="2" t="s">
@@ -25985,10 +25908,10 @@
         <v>3887</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>3905</v>
+        <v>3903</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>2348</v>
@@ -26016,11 +25939,11 @@
         <v>1201</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
       <c r="D14" s="10"/>
       <c r="F14" s="5" t="s">
-        <v>3906</v>
+        <v>3904</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>2349</v>
@@ -26060,13 +25983,13 @@
         <v>3887</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>3890</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>3907</v>
+        <v>3905</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="2" t="s">
@@ -26088,10 +26011,10 @@
         <v>3887</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>3908</v>
+        <v>3906</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -26113,7 +26036,7 @@
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="F18" s="5" t="s">
-        <v>3910</v>
+        <v>3908</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -26128,7 +26051,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="2" t="s">
@@ -26150,10 +26073,10 @@
         <v>3887</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -26175,7 +26098,7 @@
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="F21" s="5" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>2355</v>
@@ -26195,7 +26118,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="2" t="s">
@@ -26216,7 +26139,7 @@
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="F23" s="5" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -26231,10 +26154,10 @@
         <v>3887</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>2357</v>
@@ -26254,10 +26177,10 @@
         <v>3887</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>3911</v>
+        <v>3909</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>2358</v>
@@ -26277,7 +26200,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="2" t="s">
@@ -26299,7 +26222,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="2" t="s">
@@ -26321,13 +26244,13 @@
         <v>3887</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="2" t="s">
@@ -26349,7 +26272,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="2" t="s">
@@ -26371,10 +26294,10 @@
         <v>3887</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>2363</v>
@@ -26394,7 +26317,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="2" t="s">
@@ -26436,10 +26359,10 @@
         <v>3891</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -26462,10 +26385,10 @@
         <v>3891</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>2367</v>
@@ -26485,7 +26408,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>3915</v>
+        <v>3913</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="2" t="s">
@@ -26507,10 +26430,10 @@
         <v>3891</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -26533,10 +26456,10 @@
         <v>3891</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -26559,10 +26482,10 @@
         <v>3891</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>2371</v>
@@ -26582,10 +26505,10 @@
         <v>3891</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -26607,7 +26530,7 @@
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="F40" s="5" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>2373</v>
@@ -26627,10 +26550,10 @@
         <v>3887</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>2374</v>
@@ -26649,7 +26572,7 @@
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="F42" s="5" t="s">
-        <v>3918</v>
+        <v>3916</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>2375</v>
@@ -26672,7 +26595,7 @@
         <v>3888</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>2376</v>
@@ -26695,7 +26618,7 @@
         <v>3888</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>2377</v>
@@ -26715,10 +26638,10 @@
         <v>3891</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>2378</v>
@@ -26738,10 +26661,10 @@
         <v>3891</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>2379</v>
@@ -26761,13 +26684,13 @@
         <v>3891</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E47" s="14" t="s">
+        <v>3915</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>3917</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>3919</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>2380</v>
@@ -26787,10 +26710,10 @@
         <v>3891</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -26812,7 +26735,7 @@
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="F49" s="5" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -26827,10 +26750,10 @@
         <v>3891</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -26864,10 +26787,10 @@
         <v>3891</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>2383</v>
@@ -26887,10 +26810,10 @@
         <v>3891</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>2384</v>
@@ -26910,10 +26833,10 @@
         <v>3891</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -26935,7 +26858,7 @@
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="F55" s="5" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>2386</v>
@@ -26954,7 +26877,7 @@
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="F56" s="5" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>2387</v>
@@ -26973,7 +26896,7 @@
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="F57" s="5" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>2388</v>
@@ -26993,7 +26916,7 @@
       <c r="D58" s="9"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="2" t="s">
@@ -27015,13 +26938,13 @@
         <v>3891</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>3925</v>
+        <v>3923</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>3926</v>
+        <v>3924</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="2" t="s">
@@ -27043,10 +26966,10 @@
         <v>3891</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>2391</v>
@@ -27066,10 +26989,10 @@
         <v>3891</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>2392</v>
@@ -27089,10 +27012,10 @@
         <v>3891</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>2393</v>
@@ -27112,10 +27035,10 @@
         <v>3891</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>2394</v>
@@ -27151,10 +27074,10 @@
         <v>3891</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>2396</v>
@@ -27177,7 +27100,7 @@
         <v>3888</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>3953</v>
+        <v>3951</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -27203,7 +27126,7 @@
         <v>3888</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>3953</v>
+        <v>3951</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -27226,10 +27149,10 @@
         <v>3891</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -27252,7 +27175,7 @@
       <c r="D69" s="9"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
-        <v>3955</v>
+        <v>3953</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="2" t="s">
@@ -27274,10 +27197,10 @@
         <v>3891</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -27300,10 +27223,10 @@
         <v>3891</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -27326,10 +27249,10 @@
         <v>3891</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>3944</v>
+        <v>3942</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -27352,10 +27275,10 @@
         <v>3891</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>3944</v>
+        <v>3942</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -27379,7 +27302,7 @@
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -27401,7 +27324,7 @@
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="F75" s="5" t="s">
-        <v>3957</v>
+        <v>3955</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>2406</v>
@@ -27424,7 +27347,7 @@
         <v>3888</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -27447,10 +27370,10 @@
         <v>3891</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>3944</v>
+        <v>3942</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>2408</v>
@@ -27470,7 +27393,7 @@
         <v>3891</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>3890</v>
@@ -27499,10 +27422,10 @@
         <v>3888</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
       <c r="H79" s="2"/>
     </row>
@@ -27517,7 +27440,7 @@
       <c r="D80" s="9"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="2" t="s">
@@ -27539,13 +27462,13 @@
         <v>3891</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>3890</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="2" t="s">
@@ -27573,7 +27496,7 @@
         <v>3890</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>3963</v>
+        <v>3961</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="2" t="s">
@@ -27594,7 +27517,7 @@
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -27616,7 +27539,7 @@
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -27638,7 +27561,7 @@
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
       <c r="E85" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>2415</v>
@@ -27657,7 +27580,7 @@
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>2416</v>
@@ -27676,7 +27599,7 @@
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
       <c r="E87" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>2417</v>
@@ -27695,7 +27618,7 @@
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
       <c r="E88" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>2418</v>
@@ -27714,7 +27637,7 @@
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -27736,7 +27659,7 @@
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -27758,7 +27681,7 @@
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>2421</v>
@@ -27778,7 +27701,7 @@
       <c r="D92" s="9"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5" t="s">
-        <v>3964</v>
+        <v>3962</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="2" t="s">
@@ -27799,7 +27722,7 @@
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
       <c r="F93" s="5" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>2423</v>
@@ -27818,7 +27741,7 @@
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>2424</v>
@@ -27837,7 +27760,7 @@
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
       <c r="E95" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>2425</v>
@@ -27856,7 +27779,7 @@
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
       <c r="F96" s="5" t="s">
-        <v>3965</v>
+        <v>3963</v>
       </c>
       <c r="H96" s="2"/>
     </row>
@@ -28505,10 +28428,10 @@
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>3966</v>
+        <v>3964</v>
       </c>
       <c r="G135" s="5"/>
       <c r="H135" s="2" t="s">
@@ -28531,7 +28454,7 @@
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
@@ -28555,7 +28478,7 @@
       </c>
       <c r="D137" s="10"/>
       <c r="E137" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>2457</v>
@@ -28576,7 +28499,7 @@
       </c>
       <c r="D138" s="10"/>
       <c r="E138" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>2458</v>
@@ -28597,7 +28520,7 @@
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
@@ -28621,10 +28544,10 @@
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>3967</v>
+        <v>3965</v>
       </c>
       <c r="G140" s="5"/>
       <c r="H140" s="2" t="s">
@@ -28645,10 +28568,10 @@
       <c r="C141" s="10"/>
       <c r="D141" s="10"/>
       <c r="E141" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>2461</v>
@@ -28667,10 +28590,10 @@
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
       <c r="E142" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>2462</v>
@@ -28691,7 +28614,7 @@
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
@@ -28714,13 +28637,13 @@
         <v>3891</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="G144" s="5"/>
       <c r="H144" s="2" t="s">
@@ -28742,13 +28665,13 @@
         <v>3891</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="G145" s="5"/>
       <c r="H145" s="2" t="s">
@@ -28770,13 +28693,13 @@
         <v>3891</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>4014</v>
+        <v>4012</v>
       </c>
       <c r="G146" s="5"/>
       <c r="H146" s="2" t="s">
@@ -28798,10 +28721,10 @@
         <v>3891</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>2467</v>
@@ -28820,10 +28743,10 @@
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
       <c r="G148" s="5"/>
       <c r="H148" s="2" t="s">
@@ -28846,7 +28769,7 @@
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
@@ -28870,7 +28793,7 @@
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
@@ -28894,10 +28817,10 @@
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="G151" s="5"/>
       <c r="H151" s="2" t="s">
@@ -28920,7 +28843,7 @@
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>2472</v>
@@ -28942,7 +28865,7 @@
       </c>
       <c r="D153" s="10"/>
       <c r="E153" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>2473</v>
@@ -28963,7 +28886,7 @@
       </c>
       <c r="D154" s="10"/>
       <c r="E154" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>2474</v>
@@ -28984,7 +28907,7 @@
       </c>
       <c r="D155" s="10"/>
       <c r="E155" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>2475</v>
@@ -29005,7 +28928,7 @@
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>2476</v>
@@ -29025,7 +28948,7 @@
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>2477</v>
@@ -29045,7 +28968,7 @@
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="E158" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>2478</v>
@@ -29065,7 +28988,7 @@
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
       <c r="E159" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>2479</v>
@@ -29085,7 +29008,7 @@
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
       <c r="E160" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>2480</v>
@@ -29104,7 +29027,7 @@
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
       <c r="E161" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H161" s="2"/>
     </row>
@@ -29118,7 +29041,7 @@
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
@@ -29140,7 +29063,7 @@
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
@@ -29162,7 +29085,7 @@
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
       <c r="F164" s="5" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="H164" s="2"/>
     </row>
@@ -29176,7 +29099,7 @@
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
       <c r="E165" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>2483</v>
@@ -29197,7 +29120,7 @@
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
@@ -29220,10 +29143,10 @@
         <v>3891</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
@@ -29249,10 +29172,10 @@
         <v>3888</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
       <c r="H168" s="2"/>
     </row>
@@ -29267,13 +29190,13 @@
         <v>3891</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
       <c r="H169" s="2"/>
     </row>
@@ -29288,13 +29211,13 @@
         <v>3891</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E170" s="14" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>3932</v>
+        <v>3930</v>
       </c>
       <c r="H170" s="2"/>
     </row>
@@ -29309,10 +29232,10 @@
         <v>3891</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="E171" s="14" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
       <c r="H171" s="2"/>
     </row>
@@ -29327,10 +29250,10 @@
         <v>3891</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="E172" s="14" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
@@ -29352,7 +29275,7 @@
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
       <c r="E173" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>2487</v>
@@ -29372,10 +29295,10 @@
         <v>3891</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="E174" s="14" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
       <c r="H174" s="2"/>
     </row>
@@ -29390,7 +29313,7 @@
       <c r="D175" s="9"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="G175" s="5"/>
       <c r="H175" s="2" t="s">
@@ -29412,13 +29335,13 @@
         <v>3891</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E176" s="14" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="G176" s="5"/>
       <c r="H176" s="2" t="s">
@@ -29439,7 +29362,7 @@
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
       <c r="F177" s="5" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>2490</v>
@@ -29459,7 +29382,7 @@
       <c r="D178" s="9"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
       <c r="G178" s="5"/>
       <c r="H178" s="2" t="s">
@@ -29480,7 +29403,7 @@
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
       <c r="F179" s="5" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>2492</v>
@@ -29499,7 +29422,7 @@
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
       <c r="F180" s="5" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
       <c r="H180" s="2" t="s">
         <v>2493</v>
@@ -29518,7 +29441,7 @@
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
       <c r="F181" s="5" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
       <c r="H181" s="2" t="s">
         <v>2494</v>
@@ -29538,7 +29461,7 @@
       <c r="D182" s="9"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="2" t="s">
@@ -29560,7 +29483,7 @@
       <c r="D183" s="9"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="2" t="s">
@@ -30482,7 +30405,7 @@
       <c r="D235" s="9"/>
       <c r="E235" s="5"/>
       <c r="F235" s="5" t="s">
-        <v>3934</v>
+        <v>3932</v>
       </c>
       <c r="G235" s="5"/>
       <c r="H235" s="2" t="s">
@@ -30503,7 +30426,7 @@
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
       <c r="E236" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
@@ -30525,7 +30448,7 @@
       <c r="C237" s="10"/>
       <c r="D237" s="10"/>
       <c r="E237" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H237" s="2" t="s">
         <v>2541</v>
@@ -30544,7 +30467,7 @@
       <c r="C238" s="9"/>
       <c r="D238" s="9"/>
       <c r="E238" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
@@ -30566,7 +30489,7 @@
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
       <c r="E239" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
@@ -30588,7 +30511,7 @@
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
       <c r="E240" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
@@ -30610,7 +30533,7 @@
       <c r="C241" s="10"/>
       <c r="D241" s="10"/>
       <c r="E241" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H241" s="2"/>
     </row>
@@ -30624,7 +30547,7 @@
       <c r="C242" s="10"/>
       <c r="D242" s="10"/>
       <c r="E242" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H242" s="2"/>
     </row>
@@ -30638,7 +30561,7 @@
       <c r="C243" s="10"/>
       <c r="D243" s="10"/>
       <c r="E243" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H243" s="2"/>
     </row>
@@ -30652,7 +30575,7 @@
       <c r="C244" s="10"/>
       <c r="D244" s="10"/>
       <c r="E244" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H244" s="2"/>
     </row>
@@ -30666,7 +30589,7 @@
       <c r="C245" s="10"/>
       <c r="D245" s="10"/>
       <c r="E245" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H245" s="2"/>
     </row>
@@ -30680,7 +30603,7 @@
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
       <c r="E246" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
@@ -30702,7 +30625,7 @@
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
       <c r="E247" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
@@ -30724,7 +30647,7 @@
       <c r="C248" s="10"/>
       <c r="D248" s="10"/>
       <c r="E248" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H248" s="2"/>
     </row>
@@ -30738,7 +30661,7 @@
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
       <c r="E249" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
@@ -30760,7 +30683,7 @@
       <c r="C250" s="10"/>
       <c r="D250" s="10"/>
       <c r="E250" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H250" s="2" t="s">
         <v>2548</v>
@@ -30779,7 +30702,7 @@
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
       <c r="E251" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
@@ -30801,7 +30724,7 @@
       <c r="C252" s="9"/>
       <c r="D252" s="9"/>
       <c r="E252" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -30823,7 +30746,7 @@
       <c r="C253" s="9"/>
       <c r="D253" s="9"/>
       <c r="E253" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F253" s="5"/>
       <c r="G253" s="5"/>
@@ -30845,10 +30768,10 @@
       <c r="C254" s="9"/>
       <c r="D254" s="9"/>
       <c r="E254" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>3971</v>
+        <v>3969</v>
       </c>
       <c r="G254" s="5"/>
       <c r="H254" s="2" t="s">
@@ -30869,7 +30792,7 @@
       <c r="C255" s="10"/>
       <c r="D255" s="10"/>
       <c r="E255" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H255" s="2" t="s">
         <v>2553</v>
@@ -30888,7 +30811,7 @@
       <c r="C256" s="10"/>
       <c r="D256" s="10"/>
       <c r="E256" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H256" s="2"/>
     </row>
@@ -30902,7 +30825,7 @@
       <c r="C257" s="10"/>
       <c r="D257" s="10"/>
       <c r="E257" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H257" s="2" t="s">
         <v>2554</v>
@@ -30921,7 +30844,7 @@
       <c r="C258" s="10"/>
       <c r="D258" s="10"/>
       <c r="F258" s="5" t="s">
-        <v>3972</v>
+        <v>3970</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>2555</v>
@@ -30942,7 +30865,7 @@
       </c>
       <c r="D259" s="10"/>
       <c r="E259" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H259" s="2" t="s">
         <v>2556</v>
@@ -30961,7 +30884,7 @@
       <c r="C260" s="10"/>
       <c r="D260" s="10"/>
       <c r="F260" s="5" t="s">
-        <v>3972</v>
+        <v>3970</v>
       </c>
       <c r="H260" s="2" t="s">
         <v>2557</v>
@@ -30980,7 +30903,7 @@
       <c r="C261" s="9"/>
       <c r="D261" s="9"/>
       <c r="E261" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
@@ -31002,10 +30925,10 @@
       <c r="C262" s="9"/>
       <c r="D262" s="9"/>
       <c r="E262" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>3973</v>
+        <v>3971</v>
       </c>
       <c r="G262" s="5"/>
       <c r="H262" s="2" t="s">
@@ -31026,7 +30949,7 @@
       <c r="C263" s="10"/>
       <c r="D263" s="10"/>
       <c r="E263" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H263" s="2" t="s">
         <v>2560</v>
@@ -31045,7 +30968,7 @@
       <c r="C264" s="9"/>
       <c r="D264" s="9"/>
       <c r="E264" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
@@ -31069,7 +30992,7 @@
       </c>
       <c r="D265" s="9"/>
       <c r="E265" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
@@ -31091,7 +31014,7 @@
       <c r="C266" s="9"/>
       <c r="D266" s="9"/>
       <c r="E266" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
@@ -31115,7 +31038,7 @@
       </c>
       <c r="D267" s="9"/>
       <c r="E267" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>
@@ -31266,7 +31189,7 @@
       <c r="C276" s="9"/>
       <c r="D276" s="9"/>
       <c r="E276" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F276" s="5"/>
       <c r="G276" s="5"/>
@@ -31288,7 +31211,7 @@
       <c r="C277" s="10"/>
       <c r="D277" s="10"/>
       <c r="E277" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H277" s="2" t="s">
         <v>2452</v>
@@ -31307,7 +31230,7 @@
       <c r="C278" s="10"/>
       <c r="D278" s="10"/>
       <c r="E278" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H278" s="2" t="s">
         <v>2571</v>
@@ -31326,7 +31249,7 @@
       <c r="C279" s="10"/>
       <c r="D279" s="10"/>
       <c r="E279" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H279" s="2" t="s">
         <v>2572</v>
@@ -31345,7 +31268,7 @@
       <c r="C280" s="10"/>
       <c r="D280" s="10"/>
       <c r="E280" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H280" s="2" t="s">
         <v>2573</v>
@@ -31364,7 +31287,7 @@
       <c r="C281" s="10"/>
       <c r="D281" s="10"/>
       <c r="E281" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H281" s="2" t="s">
         <v>2574</v>
@@ -31383,7 +31306,7 @@
       <c r="C282" s="9"/>
       <c r="D282" s="9"/>
       <c r="E282" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F282" s="5"/>
       <c r="G282" s="5"/>
@@ -31405,7 +31328,7 @@
       <c r="C283" s="9"/>
       <c r="D283" s="9"/>
       <c r="E283" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F283" s="5"/>
       <c r="G283" s="5"/>
@@ -31427,7 +31350,7 @@
       <c r="C284" s="10"/>
       <c r="D284" s="10"/>
       <c r="E284" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H284" s="2" t="s">
         <v>2577</v>
@@ -31446,7 +31369,7 @@
       <c r="C285" s="9"/>
       <c r="D285" s="9"/>
       <c r="E285" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
@@ -31468,7 +31391,7 @@
       <c r="C286" s="9"/>
       <c r="D286" s="9"/>
       <c r="E286" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F286" s="5"/>
       <c r="G286" s="5"/>
@@ -31490,7 +31413,7 @@
       <c r="C287" s="9"/>
       <c r="D287" s="9"/>
       <c r="E287" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
@@ -31510,13 +31433,13 @@
         <v>1471</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>3974</v>
+        <v>3972</v>
       </c>
       <c r="F288" s="5"/>
       <c r="G288" s="5"/>
@@ -31536,13 +31459,13 @@
         <v>1472</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
@@ -31564,7 +31487,7 @@
       <c r="C290" s="10"/>
       <c r="D290" s="10"/>
       <c r="E290" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H290" s="2"/>
     </row>
@@ -31578,7 +31501,7 @@
       <c r="C291" s="10"/>
       <c r="D291" s="10"/>
       <c r="E291" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H291" s="2"/>
     </row>
@@ -31594,7 +31517,7 @@
       </c>
       <c r="D292" s="9"/>
       <c r="E292" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F292" s="5"/>
       <c r="G292" s="5"/>
@@ -31614,13 +31537,13 @@
         <v>1476</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>3975</v>
+        <v>3973</v>
       </c>
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
@@ -31640,13 +31563,13 @@
         <v>1477</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>3975</v>
+        <v>3973</v>
       </c>
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
@@ -31666,13 +31589,13 @@
         <v>1474</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>3975</v>
+        <v>3973</v>
       </c>
       <c r="H295" s="2"/>
     </row>
@@ -31755,13 +31678,13 @@
         <v>1482</v>
       </c>
       <c r="C300" s="10" t="s">
+        <v>3891</v>
+      </c>
+      <c r="D300" s="10" t="s">
+        <v>3894</v>
+      </c>
+      <c r="E300" s="5" t="s">
         <v>3893</v>
-      </c>
-      <c r="D300" s="10" t="s">
-        <v>3895</v>
-      </c>
-      <c r="E300" s="5" t="s">
-        <v>3894</v>
       </c>
       <c r="H300" s="2"/>
     </row>
@@ -32301,7 +32224,7 @@
       <c r="C330" s="10"/>
       <c r="D330" s="10"/>
       <c r="E330" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H330" s="2" t="s">
         <v>2616</v>
@@ -32320,7 +32243,7 @@
       <c r="C331" s="9"/>
       <c r="D331" s="9"/>
       <c r="E331" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F331" s="5"/>
       <c r="G331" s="5"/>
@@ -32340,7 +32263,7 @@
         <v>1515</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D332" s="9"/>
       <c r="E332" s="5" t="s">
@@ -32368,7 +32291,7 @@
       </c>
       <c r="D333" s="9"/>
       <c r="E333" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F333" s="5"/>
       <c r="G333" s="5"/>
@@ -32392,7 +32315,7 @@
       </c>
       <c r="D334" s="9"/>
       <c r="E334" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F334" s="5"/>
       <c r="G334" s="5"/>
@@ -32416,7 +32339,7 @@
       </c>
       <c r="D335" s="10"/>
       <c r="E335" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H335" s="2" t="s">
         <v>2621</v>
@@ -32437,7 +32360,7 @@
       </c>
       <c r="D336" s="9"/>
       <c r="E336" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F336" s="5"/>
       <c r="G336" s="5"/>
@@ -32461,7 +32384,7 @@
       </c>
       <c r="D337" s="10"/>
       <c r="E337" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>2623</v>
@@ -32482,7 +32405,7 @@
       </c>
       <c r="D338" s="10"/>
       <c r="E338" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H338" s="2"/>
     </row>
@@ -32498,7 +32421,7 @@
       </c>
       <c r="D339" s="10"/>
       <c r="E339" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H339" s="2" t="s">
         <v>2624</v>
@@ -32519,7 +32442,7 @@
       </c>
       <c r="D340" s="10"/>
       <c r="E340" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H340" s="2" t="s">
         <v>2625</v>
@@ -32540,7 +32463,7 @@
       </c>
       <c r="D341" s="9"/>
       <c r="E341" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F341" s="5"/>
       <c r="G341" s="5"/>
@@ -32564,7 +32487,7 @@
       </c>
       <c r="D342" s="9"/>
       <c r="E342" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F342" s="5"/>
       <c r="G342" s="5"/>
@@ -32588,7 +32511,7 @@
       </c>
       <c r="D343" s="9"/>
       <c r="E343" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F343" s="5"/>
       <c r="G343" s="5"/>
@@ -32612,7 +32535,7 @@
       </c>
       <c r="D344" s="10"/>
       <c r="E344" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H344" s="2" t="s">
         <v>2629</v>
@@ -32633,7 +32556,7 @@
       </c>
       <c r="D345" s="10"/>
       <c r="E345" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H345" s="2" t="s">
         <v>2630</v>
@@ -32654,7 +32577,7 @@
       </c>
       <c r="D346" s="9"/>
       <c r="E346" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F346" s="5"/>
       <c r="G346" s="5"/>
@@ -32678,7 +32601,7 @@
       </c>
       <c r="D347" s="9"/>
       <c r="E347" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F347" s="5"/>
       <c r="G347" s="5"/>
@@ -32702,7 +32625,7 @@
       </c>
       <c r="D348" s="9"/>
       <c r="E348" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F348" s="5"/>
       <c r="G348" s="5"/>
@@ -32726,7 +32649,7 @@
       </c>
       <c r="D349" s="10"/>
       <c r="E349" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H349" s="2" t="s">
         <v>2634</v>
@@ -32747,7 +32670,7 @@
       </c>
       <c r="D350" s="9"/>
       <c r="E350" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F350" s="5"/>
       <c r="G350" s="5"/>
@@ -32771,7 +32694,7 @@
       </c>
       <c r="D351" s="10"/>
       <c r="E351" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H351" s="2" t="s">
         <v>2636</v>
@@ -32792,7 +32715,7 @@
       </c>
       <c r="D352" s="10"/>
       <c r="E352" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H352" s="2"/>
     </row>
@@ -32828,10 +32751,10 @@
       </c>
       <c r="D354" s="9"/>
       <c r="E354" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>3976</v>
+        <v>3974</v>
       </c>
       <c r="G354" s="5"/>
       <c r="H354" s="2" t="s">
@@ -32854,7 +32777,7 @@
       </c>
       <c r="D355" s="10"/>
       <c r="E355" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H355" s="2" t="s">
         <v>2639</v>
@@ -32875,7 +32798,7 @@
       </c>
       <c r="D356" s="9"/>
       <c r="E356" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F356" s="5"/>
       <c r="G356" s="5"/>
@@ -32899,7 +32822,7 @@
       </c>
       <c r="D357" s="9"/>
       <c r="E357" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F357" s="5"/>
       <c r="G357" s="5"/>
@@ -32923,7 +32846,7 @@
       </c>
       <c r="D358" s="9"/>
       <c r="E358" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F358" s="5"/>
       <c r="G358" s="5"/>
@@ -32947,7 +32870,7 @@
       </c>
       <c r="D359" s="9"/>
       <c r="E359" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F359" s="5"/>
       <c r="G359" s="5"/>
@@ -32971,7 +32894,7 @@
       </c>
       <c r="D360" s="10"/>
       <c r="E360" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H360" s="2" t="s">
         <v>2644</v>
@@ -32992,7 +32915,7 @@
       </c>
       <c r="D361" s="9"/>
       <c r="E361" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F361" s="5"/>
       <c r="G361" s="5"/>
@@ -33016,7 +32939,7 @@
       </c>
       <c r="D362" s="10"/>
       <c r="E362" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H362" s="2"/>
     </row>
@@ -33032,7 +32955,7 @@
       </c>
       <c r="D363" s="10"/>
       <c r="E363" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H363" s="2" t="s">
         <v>2646</v>
@@ -33053,7 +32976,7 @@
       </c>
       <c r="D364" s="9"/>
       <c r="E364" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F364" s="5"/>
       <c r="G364" s="5"/>
@@ -33077,7 +33000,7 @@
       </c>
       <c r="D365" s="10"/>
       <c r="E365" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H365" s="2" t="s">
         <v>2648</v>
@@ -33098,7 +33021,7 @@
       </c>
       <c r="D366" s="10"/>
       <c r="E366" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H366" s="2" t="s">
         <v>2649</v>
@@ -33119,7 +33042,7 @@
       </c>
       <c r="D367" s="10"/>
       <c r="E367" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H367" s="2" t="s">
         <v>2650</v>
@@ -33140,7 +33063,7 @@
       </c>
       <c r="D368" s="9"/>
       <c r="E368" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F368" s="5"/>
       <c r="G368" s="5"/>
@@ -33164,7 +33087,7 @@
       </c>
       <c r="D369" s="9"/>
       <c r="E369" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F369" s="5"/>
       <c r="G369" s="5"/>
@@ -33188,7 +33111,7 @@
       </c>
       <c r="D370" s="9"/>
       <c r="E370" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F370" s="5"/>
       <c r="G370" s="5"/>
@@ -33212,7 +33135,7 @@
       </c>
       <c r="D371" s="9"/>
       <c r="E371" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F371" s="5"/>
       <c r="G371" s="5"/>
@@ -33236,7 +33159,7 @@
       </c>
       <c r="D372" s="9"/>
       <c r="E372" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F372" s="5"/>
       <c r="G372" s="5"/>
@@ -33260,7 +33183,7 @@
       </c>
       <c r="D373" s="9"/>
       <c r="E373" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F373" s="5"/>
       <c r="G373" s="5"/>
@@ -33284,7 +33207,7 @@
       </c>
       <c r="D374" s="10"/>
       <c r="E374" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H374" s="2"/>
     </row>
@@ -33300,7 +33223,7 @@
       </c>
       <c r="D375" s="9"/>
       <c r="E375" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F375" s="5"/>
       <c r="G375" s="5"/>
@@ -33324,7 +33247,7 @@
       </c>
       <c r="D376" s="9"/>
       <c r="E376" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F376" s="5"/>
       <c r="G376" s="5"/>
@@ -33348,7 +33271,7 @@
       </c>
       <c r="D377" s="9"/>
       <c r="E377" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F377" s="5"/>
       <c r="G377" s="5"/>
@@ -33372,7 +33295,7 @@
       </c>
       <c r="D378" s="9"/>
       <c r="E378" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F378" s="5"/>
       <c r="G378" s="5"/>
@@ -33396,7 +33319,7 @@
       </c>
       <c r="D379" s="9"/>
       <c r="E379" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F379" s="5"/>
       <c r="G379" s="5"/>
@@ -33420,7 +33343,7 @@
       </c>
       <c r="D380" s="10"/>
       <c r="E380" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H380" s="2"/>
     </row>
@@ -33436,7 +33359,7 @@
       </c>
       <c r="D381" s="10"/>
       <c r="E381" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H381" s="2" t="s">
         <v>2662</v>
@@ -33457,7 +33380,7 @@
       </c>
       <c r="D382" s="10"/>
       <c r="E382" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H382" s="2"/>
     </row>
@@ -33473,7 +33396,7 @@
       </c>
       <c r="D383" s="9"/>
       <c r="E383" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F383" s="5"/>
       <c r="G383" s="5"/>
@@ -33495,7 +33418,7 @@
       <c r="C384" s="10"/>
       <c r="D384" s="10"/>
       <c r="F384" s="5" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="H384" s="2"/>
     </row>
@@ -33627,13 +33550,13 @@
         <v>1572</v>
       </c>
       <c r="C391" s="9" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D391" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E391" s="5" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
       <c r="F391" s="5"/>
       <c r="G391" s="5"/>
@@ -33653,13 +33576,13 @@
         <v>1573</v>
       </c>
       <c r="C392" s="9" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D392" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E392" s="5" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
       <c r="F392" s="5"/>
       <c r="G392" s="5"/>
@@ -33681,7 +33604,7 @@
       <c r="C393" s="10"/>
       <c r="D393" s="10"/>
       <c r="E393" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H393" s="2"/>
     </row>
@@ -33695,7 +33618,7 @@
       <c r="C394" s="10"/>
       <c r="D394" s="10"/>
       <c r="E394" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H394" s="2"/>
     </row>
@@ -33709,10 +33632,10 @@
       <c r="C395" s="10"/>
       <c r="D395" s="10"/>
       <c r="E395" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F395" s="5" t="s">
-        <v>3978</v>
+        <v>3976</v>
       </c>
       <c r="H395" s="2" t="s">
         <v>2672</v>
@@ -33729,13 +33652,13 @@
         <v>1577</v>
       </c>
       <c r="C396" s="9" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D396" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E396" s="5" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
       <c r="F396" s="5"/>
       <c r="G396" s="5"/>
@@ -33755,13 +33678,13 @@
         <v>1575</v>
       </c>
       <c r="C397" s="10" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D397" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E397" s="5" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
       <c r="H397" s="2"/>
     </row>
@@ -34687,10 +34610,10 @@
       <c r="C452" s="9"/>
       <c r="D452" s="9"/>
       <c r="E452" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F452" s="5" t="s">
-        <v>3979</v>
+        <v>3977</v>
       </c>
       <c r="G452" s="5"/>
       <c r="H452" s="2" t="s">
@@ -34711,7 +34634,7 @@
       <c r="C453" s="10"/>
       <c r="D453" s="10"/>
       <c r="E453" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H453" s="2" t="s">
         <v>2717</v>
@@ -34730,7 +34653,7 @@
       <c r="C454" s="10"/>
       <c r="D454" s="10"/>
       <c r="E454" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H454" s="2" t="s">
         <v>2718</v>
@@ -34749,7 +34672,7 @@
       <c r="C455" s="10"/>
       <c r="D455" s="10"/>
       <c r="E455" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H455" s="2" t="s">
         <v>2719</v>
@@ -34768,7 +34691,7 @@
       <c r="C456" s="10"/>
       <c r="D456" s="10"/>
       <c r="E456" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H456" s="2" t="s">
         <v>2720</v>
@@ -34787,7 +34710,7 @@
       <c r="C457" s="9"/>
       <c r="D457" s="9"/>
       <c r="E457" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F457" s="5"/>
       <c r="G457" s="5"/>
@@ -34809,7 +34732,7 @@
       <c r="C458" s="9"/>
       <c r="D458" s="9"/>
       <c r="E458" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F458" s="5"/>
       <c r="G458" s="5"/>
@@ -34833,10 +34756,10 @@
       </c>
       <c r="D459" s="9"/>
       <c r="E459" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F459" s="5" t="s">
-        <v>3981</v>
+        <v>3979</v>
       </c>
       <c r="G459" s="5"/>
       <c r="H459" s="2" t="s">
@@ -34859,10 +34782,10 @@
       </c>
       <c r="D460" s="9"/>
       <c r="E460" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F460" s="5" t="s">
-        <v>3980</v>
+        <v>3978</v>
       </c>
       <c r="G460" s="5"/>
       <c r="H460" s="2" t="s">
@@ -34885,7 +34808,7 @@
       </c>
       <c r="D461" s="10"/>
       <c r="E461" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H461" s="2" t="s">
         <v>2725</v>
@@ -34906,7 +34829,7 @@
       </c>
       <c r="D462" s="10"/>
       <c r="E462" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H462" s="2" t="s">
         <v>2726</v>
@@ -34927,7 +34850,7 @@
       </c>
       <c r="D463" s="10"/>
       <c r="E463" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H463" s="2" t="s">
         <v>2727</v>
@@ -34948,7 +34871,7 @@
       </c>
       <c r="D464" s="9"/>
       <c r="E464" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F464" s="5"/>
       <c r="G464" s="5"/>
@@ -34972,7 +34895,7 @@
       </c>
       <c r="D465" s="10"/>
       <c r="E465" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H465" s="2" t="s">
         <v>2729</v>
@@ -34993,7 +34916,7 @@
       </c>
       <c r="D466" s="10"/>
       <c r="E466" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H466" s="2" t="s">
         <v>2730</v>
@@ -35014,7 +34937,7 @@
       </c>
       <c r="D467" s="10"/>
       <c r="E467" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H467" s="2" t="s">
         <v>2731</v>
@@ -35035,7 +34958,7 @@
       </c>
       <c r="D468" s="9"/>
       <c r="E468" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F468" s="5"/>
       <c r="G468" s="5"/>
@@ -35057,7 +34980,7 @@
       <c r="C469" s="10"/>
       <c r="D469" s="10"/>
       <c r="E469" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H469" s="2" t="s">
         <v>2733</v>
@@ -35250,11 +35173,11 @@
         <v>1654</v>
       </c>
       <c r="C480" s="10" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D480" s="10"/>
       <c r="E480" s="5" t="s">
-        <v>3983</v>
+        <v>3981</v>
       </c>
       <c r="H480" s="2" t="s">
         <v>2744</v>
@@ -35271,11 +35194,11 @@
         <v>1655</v>
       </c>
       <c r="C481" s="10" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D481" s="10"/>
       <c r="E481" s="5" t="s">
-        <v>3982</v>
+        <v>3980</v>
       </c>
       <c r="H481" s="2" t="s">
         <v>2745</v>
@@ -35296,7 +35219,7 @@
       </c>
       <c r="D482" s="10"/>
       <c r="E482" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H482" s="2" t="s">
         <v>2746</v>
@@ -35317,7 +35240,7 @@
       </c>
       <c r="D483" s="10"/>
       <c r="E483" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H483" s="2" t="s">
         <v>2747</v>
@@ -35338,7 +35261,7 @@
       </c>
       <c r="D484" s="9"/>
       <c r="E484" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F484" s="5"/>
       <c r="G484" s="5"/>
@@ -35362,7 +35285,7 @@
       </c>
       <c r="D485" s="10"/>
       <c r="E485" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H485" s="2" t="s">
         <v>2749</v>
@@ -35383,7 +35306,7 @@
       </c>
       <c r="D486" s="9"/>
       <c r="E486" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F486" s="5"/>
       <c r="G486" s="5"/>
@@ -35407,7 +35330,7 @@
       </c>
       <c r="D487" s="9"/>
       <c r="E487" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F487" s="5"/>
       <c r="G487" s="5"/>
@@ -35431,7 +35354,7 @@
       </c>
       <c r="D488" s="10"/>
       <c r="E488" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H488" s="2" t="s">
         <v>2752</v>
@@ -35452,7 +35375,7 @@
       </c>
       <c r="D489" s="9"/>
       <c r="E489" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F489" s="5"/>
       <c r="G489" s="5"/>
@@ -35476,7 +35399,7 @@
       </c>
       <c r="D490" s="9"/>
       <c r="E490" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F490" s="5"/>
       <c r="G490" s="5"/>
@@ -35500,7 +35423,7 @@
       </c>
       <c r="D491" s="10"/>
       <c r="E491" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H491" s="2" t="s">
         <v>2755</v>
@@ -35521,7 +35444,7 @@
       </c>
       <c r="D492" s="10"/>
       <c r="E492" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H492" s="2" t="s">
         <v>2756</v>
@@ -35542,7 +35465,7 @@
       </c>
       <c r="D493" s="9"/>
       <c r="E493" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F493" s="5"/>
       <c r="G493" s="5"/>
@@ -35566,7 +35489,7 @@
       </c>
       <c r="D494" s="9"/>
       <c r="E494" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F494" s="5"/>
       <c r="G494" s="5"/>
@@ -35590,7 +35513,7 @@
       </c>
       <c r="D495" s="9"/>
       <c r="E495" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F495" s="5"/>
       <c r="G495" s="5"/>
@@ -35614,7 +35537,7 @@
       </c>
       <c r="D496" s="10"/>
       <c r="E496" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H496" s="2"/>
     </row>
@@ -35630,7 +35553,7 @@
       </c>
       <c r="D497" s="9"/>
       <c r="E497" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F497" s="5"/>
       <c r="G497" s="5"/>
@@ -35654,7 +35577,7 @@
       </c>
       <c r="D498" s="10"/>
       <c r="E498" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H498" s="2" t="s">
         <v>2761</v>
@@ -35675,7 +35598,7 @@
       </c>
       <c r="D499" s="10"/>
       <c r="E499" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H499" s="2" t="s">
         <v>2762</v>
@@ -35696,7 +35619,7 @@
       </c>
       <c r="D500" s="10"/>
       <c r="E500" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H500" s="2"/>
     </row>
@@ -35712,7 +35635,7 @@
       </c>
       <c r="D501" s="9"/>
       <c r="E501" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F501" s="5"/>
       <c r="G501" s="5"/>
@@ -35736,7 +35659,7 @@
       </c>
       <c r="D502" s="9"/>
       <c r="E502" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F502" s="5"/>
       <c r="G502" s="5"/>
@@ -35760,7 +35683,7 @@
       </c>
       <c r="D503" s="10"/>
       <c r="E503" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H503" s="2"/>
     </row>
@@ -35776,7 +35699,7 @@
       </c>
       <c r="D504" s="9"/>
       <c r="E504" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F504" s="5"/>
       <c r="G504" s="5"/>
@@ -35800,7 +35723,7 @@
       </c>
       <c r="D505" s="9"/>
       <c r="E505" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F505" s="5"/>
       <c r="G505" s="5"/>
@@ -35824,7 +35747,7 @@
       </c>
       <c r="D506" s="9"/>
       <c r="E506" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F506" s="5"/>
       <c r="G506" s="5"/>
@@ -35848,7 +35771,7 @@
       </c>
       <c r="D507" s="9"/>
       <c r="E507" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F507" s="5"/>
       <c r="G507" s="5"/>
@@ -35868,13 +35791,13 @@
         <v>1681</v>
       </c>
       <c r="C508" s="9" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D508" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E508" s="5" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
       <c r="F508" s="5"/>
       <c r="G508" s="5"/>
@@ -35894,13 +35817,13 @@
         <v>1682</v>
       </c>
       <c r="C509" s="9" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D509" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E509" s="5" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
       <c r="F509" s="5"/>
       <c r="G509" s="5"/>
@@ -35920,13 +35843,13 @@
         <v>1683</v>
       </c>
       <c r="C510" s="9" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D510" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E510" s="5" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
       <c r="F510" s="5"/>
       <c r="G510" s="5"/>
@@ -35946,13 +35869,13 @@
         <v>1684</v>
       </c>
       <c r="C511" s="9" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D511" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E511" s="5" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
       <c r="F511" s="5"/>
       <c r="G511" s="5"/>
@@ -35976,7 +35899,7 @@
       </c>
       <c r="D512" s="9"/>
       <c r="E512" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F512" s="5"/>
       <c r="G512" s="5"/>
@@ -35996,16 +35919,16 @@
         <v>1686</v>
       </c>
       <c r="C513" s="9" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D513" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E513" s="5" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
       <c r="F513" s="5" t="s">
-        <v>3984</v>
+        <v>3982</v>
       </c>
       <c r="G513" s="5"/>
       <c r="H513" s="2" t="s">
@@ -36171,7 +36094,7 @@
       </c>
       <c r="D522" s="9"/>
       <c r="E522" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F522" s="5"/>
       <c r="G522" s="5"/>
@@ -36195,7 +36118,7 @@
       </c>
       <c r="D523" s="9"/>
       <c r="E523" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F523" s="5"/>
       <c r="G523" s="5"/>
@@ -36219,7 +36142,7 @@
       </c>
       <c r="D524" s="9"/>
       <c r="E524" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F524" s="5"/>
       <c r="G524" s="5"/>
@@ -36255,13 +36178,13 @@
         <v>1699</v>
       </c>
       <c r="C526" s="9" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D526" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E526" s="5" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
       <c r="F526" s="5"/>
       <c r="G526" s="5"/>
@@ -36281,13 +36204,13 @@
         <v>1700</v>
       </c>
       <c r="C527" s="9" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D527" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E527" s="5" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
       <c r="H527" s="2" t="s">
         <v>2787</v>
@@ -36304,13 +36227,13 @@
         <v>1701</v>
       </c>
       <c r="C528" s="9" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D528" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E528" s="5" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
       <c r="H528" s="2" t="s">
         <v>2788</v>
@@ -36327,13 +36250,13 @@
         <v>1702</v>
       </c>
       <c r="C529" s="9" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D529" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E529" s="5" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
       <c r="H529" s="2" t="s">
         <v>2789</v>
@@ -36374,7 +36297,7 @@
       </c>
       <c r="D531" s="9"/>
       <c r="E531" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F531" s="5"/>
       <c r="G531" s="5"/>
@@ -36398,7 +36321,7 @@
       </c>
       <c r="D532" s="9"/>
       <c r="E532" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F532" s="5"/>
       <c r="G532" s="5"/>
@@ -36422,7 +36345,7 @@
       </c>
       <c r="D533" s="10"/>
       <c r="E533" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H533" s="2"/>
     </row>
@@ -36438,7 +36361,7 @@
       </c>
       <c r="D534" s="10"/>
       <c r="E534" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H534" s="2"/>
     </row>
@@ -36454,7 +36377,7 @@
       </c>
       <c r="D535" s="9"/>
       <c r="E535" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F535" s="5"/>
       <c r="G535" s="5"/>
@@ -36478,7 +36401,7 @@
       </c>
       <c r="D536" s="9"/>
       <c r="E536" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F536" s="5"/>
       <c r="G536" s="5"/>
@@ -36502,7 +36425,7 @@
       </c>
       <c r="D537" s="10"/>
       <c r="E537" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H537" s="2"/>
     </row>
@@ -36518,7 +36441,7 @@
       </c>
       <c r="D538" s="9"/>
       <c r="E538" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F538" s="5"/>
       <c r="G538" s="5"/>
@@ -36542,7 +36465,7 @@
       </c>
       <c r="D539" s="9"/>
       <c r="E539" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F539" s="5"/>
       <c r="G539" s="5"/>
@@ -36566,7 +36489,7 @@
       </c>
       <c r="D540" s="10"/>
       <c r="E540" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H540" s="2"/>
     </row>
@@ -36582,7 +36505,7 @@
       </c>
       <c r="D541" s="10"/>
       <c r="E541" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H541" s="2"/>
     </row>
@@ -36598,7 +36521,7 @@
       </c>
       <c r="D542" s="10"/>
       <c r="E542" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H542" s="2" t="s">
         <v>2797</v>
@@ -36619,7 +36542,7 @@
       </c>
       <c r="D543" s="10"/>
       <c r="E543" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H543" s="2"/>
     </row>
@@ -36635,10 +36558,10 @@
       </c>
       <c r="D544" s="9"/>
       <c r="E544" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F544" s="5" t="s">
-        <v>3988</v>
+        <v>3986</v>
       </c>
       <c r="G544" s="5"/>
       <c r="H544" s="2" t="s">
@@ -36661,7 +36584,7 @@
       </c>
       <c r="D545" s="10"/>
       <c r="E545" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H545" s="2" t="s">
         <v>2799</v>
@@ -36682,7 +36605,7 @@
       </c>
       <c r="D546" s="10"/>
       <c r="E546" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H546" s="2" t="s">
         <v>2800</v>
@@ -36703,7 +36626,7 @@
       </c>
       <c r="D547" s="10"/>
       <c r="E547" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H547" s="2" t="s">
         <v>2801</v>
@@ -36724,7 +36647,7 @@
       </c>
       <c r="D548" s="10"/>
       <c r="E548" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H548" s="2"/>
     </row>
@@ -36740,7 +36663,7 @@
       </c>
       <c r="D549" s="10"/>
       <c r="E549" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H549" s="2"/>
     </row>
@@ -36756,7 +36679,7 @@
       </c>
       <c r="D550" s="10"/>
       <c r="E550" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H550" s="2"/>
     </row>
@@ -36772,7 +36695,7 @@
       </c>
       <c r="D551" s="9"/>
       <c r="E551" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F551" s="5"/>
       <c r="G551" s="5"/>
@@ -36796,7 +36719,7 @@
       </c>
       <c r="D552" s="10"/>
       <c r="E552" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H552" s="2" t="s">
         <v>2803</v>
@@ -36817,7 +36740,7 @@
       </c>
       <c r="D553" s="9"/>
       <c r="E553" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F553" s="5"/>
       <c r="G553" s="5"/>
@@ -36841,7 +36764,7 @@
       </c>
       <c r="D554" s="10"/>
       <c r="E554" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H554" s="2"/>
     </row>
@@ -36857,7 +36780,7 @@
       </c>
       <c r="D555" s="9"/>
       <c r="E555" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F555" s="5"/>
       <c r="G555" s="5"/>
@@ -36881,7 +36804,7 @@
       </c>
       <c r="D556" s="10"/>
       <c r="E556" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H556" s="2" t="s">
         <v>2806</v>
@@ -36902,7 +36825,7 @@
       </c>
       <c r="D557" s="10"/>
       <c r="E557" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H557" s="2" t="s">
         <v>2807</v>
@@ -36923,7 +36846,7 @@
       </c>
       <c r="D558" s="10"/>
       <c r="E558" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H558" s="2" t="s">
         <v>2452</v>
@@ -36944,7 +36867,7 @@
       </c>
       <c r="D559" s="10"/>
       <c r="E559" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H559" s="2" t="s">
         <v>2808</v>
@@ -36965,7 +36888,7 @@
       </c>
       <c r="D560" s="10"/>
       <c r="E560" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H560" s="2" t="s">
         <v>2809</v>
@@ -37006,10 +36929,10 @@
       </c>
       <c r="D562" s="9"/>
       <c r="E562" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F562" s="5" t="s">
-        <v>3985</v>
+        <v>3983</v>
       </c>
       <c r="G562" s="5"/>
       <c r="H562" s="2" t="s">
@@ -37032,7 +36955,7 @@
       </c>
       <c r="D563" s="9"/>
       <c r="E563" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F563" s="5"/>
       <c r="G563" s="5"/>
@@ -37056,7 +36979,7 @@
       </c>
       <c r="D564" s="9"/>
       <c r="E564" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F564" s="5"/>
       <c r="G564" s="5"/>
@@ -37080,7 +37003,7 @@
       </c>
       <c r="D565" s="9"/>
       <c r="E565" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F565" s="5"/>
       <c r="G565" s="5"/>
@@ -37104,7 +37027,7 @@
       </c>
       <c r="D566" s="9"/>
       <c r="E566" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F566" s="5"/>
       <c r="G566" s="5"/>
@@ -37128,7 +37051,7 @@
       </c>
       <c r="D567" s="10"/>
       <c r="E567" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H567" s="2" t="s">
         <v>2816</v>
@@ -37149,7 +37072,7 @@
       </c>
       <c r="D568" s="9"/>
       <c r="E568" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F568" s="5"/>
       <c r="G568" s="5"/>
@@ -37173,7 +37096,7 @@
       </c>
       <c r="D569" s="9"/>
       <c r="E569" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F569" s="5"/>
       <c r="G569" s="5"/>
@@ -37197,7 +37120,7 @@
       </c>
       <c r="D570" s="10"/>
       <c r="E570" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H570" s="2" t="s">
         <v>2819</v>
@@ -37218,7 +37141,7 @@
       </c>
       <c r="D571" s="9"/>
       <c r="E571" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F571" s="5"/>
       <c r="G571" s="5"/>
@@ -37242,7 +37165,7 @@
       </c>
       <c r="D572" s="10"/>
       <c r="E572" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H572" s="2"/>
     </row>
@@ -37258,7 +37181,7 @@
       </c>
       <c r="D573" s="10"/>
       <c r="E573" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H573" s="2" t="s">
         <v>2821</v>
@@ -37279,7 +37202,7 @@
       </c>
       <c r="D574" s="10"/>
       <c r="E574" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H574" s="2" t="s">
         <v>2822</v>
@@ -37300,7 +37223,7 @@
       </c>
       <c r="D575" s="9"/>
       <c r="E575" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F575" s="5"/>
       <c r="G575" s="5"/>
@@ -37324,7 +37247,7 @@
       </c>
       <c r="D576" s="9"/>
       <c r="E576" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F576" s="5"/>
       <c r="G576" s="5"/>
@@ -37348,7 +37271,7 @@
       </c>
       <c r="D577" s="10"/>
       <c r="E577" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H577" s="2"/>
     </row>
@@ -37364,7 +37287,7 @@
       </c>
       <c r="D578" s="10"/>
       <c r="E578" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H578" s="2" t="s">
         <v>2825</v>
@@ -37385,7 +37308,7 @@
       </c>
       <c r="D579" s="10"/>
       <c r="E579" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H579" s="2"/>
     </row>
@@ -37401,7 +37324,7 @@
       </c>
       <c r="D580" s="9"/>
       <c r="E580" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F580" s="5"/>
       <c r="G580" s="5"/>
@@ -37425,7 +37348,7 @@
       </c>
       <c r="D581" s="10"/>
       <c r="E581" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H581" s="2" t="s">
         <v>2827</v>
@@ -37446,7 +37369,7 @@
       </c>
       <c r="D582" s="9"/>
       <c r="E582" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F582" s="5"/>
       <c r="G582" s="5"/>
@@ -37470,7 +37393,7 @@
       </c>
       <c r="D583" s="10"/>
       <c r="E583" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H583" s="2" t="s">
         <v>2829</v>
@@ -37491,7 +37414,7 @@
       </c>
       <c r="D584" s="10"/>
       <c r="E584" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H584" s="2" t="s">
         <v>2830</v>
@@ -37512,7 +37435,7 @@
       </c>
       <c r="D585" s="10"/>
       <c r="E585" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H585" s="2"/>
     </row>
@@ -37528,7 +37451,7 @@
       </c>
       <c r="D586" s="9"/>
       <c r="E586" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F586" s="5"/>
       <c r="G586" s="5"/>
@@ -37552,7 +37475,7 @@
       </c>
       <c r="D587" s="10"/>
       <c r="E587" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H587" s="2" t="s">
         <v>2832</v>
@@ -37573,7 +37496,7 @@
       </c>
       <c r="D588" s="10"/>
       <c r="E588" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H588" s="2"/>
     </row>
@@ -37589,7 +37512,7 @@
       </c>
       <c r="D589" s="9"/>
       <c r="E589" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F589" s="5"/>
       <c r="G589" s="5"/>
@@ -37613,7 +37536,7 @@
       </c>
       <c r="D590" s="9"/>
       <c r="E590" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F590" s="5"/>
       <c r="G590" s="5"/>
@@ -37637,7 +37560,7 @@
       </c>
       <c r="D591" s="10"/>
       <c r="E591" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H591" s="2" t="s">
         <v>2835</v>
@@ -37658,7 +37581,7 @@
       </c>
       <c r="D592" s="10"/>
       <c r="E592" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H592" s="2" t="s">
         <v>2836</v>
@@ -37679,7 +37602,7 @@
       </c>
       <c r="D593" s="9"/>
       <c r="E593" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F593" s="5"/>
       <c r="G593" s="5"/>
@@ -37703,7 +37626,7 @@
       </c>
       <c r="D594" s="10"/>
       <c r="E594" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H594" s="2"/>
     </row>
@@ -37719,7 +37642,7 @@
       </c>
       <c r="D595" s="9"/>
       <c r="E595" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F595" s="5"/>
       <c r="G595" s="5"/>
@@ -37743,7 +37666,7 @@
       </c>
       <c r="D596" s="10"/>
       <c r="E596" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H596" s="2" t="s">
         <v>2839</v>
@@ -37764,7 +37687,7 @@
       </c>
       <c r="D597" s="10"/>
       <c r="E597" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H597" s="2" t="s">
         <v>2840</v>
@@ -37785,7 +37708,7 @@
       </c>
       <c r="D598" s="9"/>
       <c r="E598" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F598" s="5"/>
       <c r="G598" s="5"/>
@@ -37809,7 +37732,7 @@
       </c>
       <c r="D599" s="10"/>
       <c r="E599" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H599" s="2" t="s">
         <v>2842</v>
@@ -37830,7 +37753,7 @@
       </c>
       <c r="D600" s="9"/>
       <c r="E600" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F600" s="5"/>
       <c r="G600" s="5"/>
@@ -37854,7 +37777,7 @@
       </c>
       <c r="D601" s="10"/>
       <c r="E601" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H601" s="2" t="s">
         <v>2844</v>
@@ -37875,7 +37798,7 @@
       </c>
       <c r="D602" s="10"/>
       <c r="E602" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H602" s="2" t="s">
         <v>2845</v>
@@ -37896,7 +37819,7 @@
       </c>
       <c r="D603" s="10"/>
       <c r="E603" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H603" s="2"/>
     </row>
@@ -37912,7 +37835,7 @@
       </c>
       <c r="D604" s="10"/>
       <c r="E604" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H604" s="2" t="s">
         <v>2846</v>
@@ -37933,7 +37856,7 @@
       </c>
       <c r="D605" s="9"/>
       <c r="E605" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F605" s="5"/>
       <c r="G605" s="5"/>
@@ -37957,7 +37880,7 @@
       </c>
       <c r="D606" s="10"/>
       <c r="E606" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H606" s="2" t="s">
         <v>2848</v>
@@ -37978,7 +37901,7 @@
       </c>
       <c r="D607" s="10"/>
       <c r="E607" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H607" s="2" t="s">
         <v>2849</v>
@@ -37999,7 +37922,7 @@
       </c>
       <c r="D608" s="9"/>
       <c r="E608" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F608" s="5"/>
       <c r="G608" s="5"/>
@@ -38023,7 +37946,7 @@
       </c>
       <c r="D609" s="10"/>
       <c r="E609" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H609" s="2" t="s">
         <v>2851</v>
@@ -38044,7 +37967,7 @@
       </c>
       <c r="D610" s="9"/>
       <c r="E610" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F610" s="5"/>
       <c r="G610" s="5"/>
@@ -38068,7 +37991,7 @@
       </c>
       <c r="D611" s="9"/>
       <c r="E611" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F611" s="5"/>
       <c r="G611" s="5"/>
@@ -38092,7 +38015,7 @@
       </c>
       <c r="D612" s="9"/>
       <c r="E612" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F612" s="5"/>
       <c r="G612" s="5"/>
@@ -38116,7 +38039,7 @@
       </c>
       <c r="D613" s="10"/>
       <c r="E613" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H613" s="2"/>
     </row>
@@ -38132,7 +38055,7 @@
       </c>
       <c r="D614" s="9"/>
       <c r="E614" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F614" s="5"/>
       <c r="G614" s="5"/>
@@ -38156,7 +38079,7 @@
       </c>
       <c r="D615" s="10"/>
       <c r="E615" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H615" s="2" t="s">
         <v>2856</v>
@@ -38177,7 +38100,7 @@
       </c>
       <c r="D616" s="9"/>
       <c r="E616" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F616" s="5"/>
       <c r="G616" s="5"/>
@@ -38201,7 +38124,7 @@
       </c>
       <c r="D617" s="9"/>
       <c r="E617" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F617" s="5"/>
       <c r="G617" s="5"/>
@@ -38225,7 +38148,7 @@
       </c>
       <c r="D618" s="9"/>
       <c r="E618" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F618" s="5"/>
       <c r="G618" s="5"/>
@@ -38249,7 +38172,7 @@
       </c>
       <c r="D619" s="9"/>
       <c r="E619" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F619" s="5"/>
       <c r="G619" s="5"/>
@@ -38273,7 +38196,7 @@
       </c>
       <c r="D620" s="9"/>
       <c r="E620" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F620" s="5"/>
       <c r="G620" s="5"/>
@@ -38297,7 +38220,7 @@
       </c>
       <c r="D621" s="9"/>
       <c r="E621" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F621" s="5"/>
       <c r="G621" s="5"/>
@@ -38321,7 +38244,7 @@
       </c>
       <c r="D622" s="10"/>
       <c r="E622" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H622" s="2"/>
     </row>
@@ -38337,7 +38260,7 @@
       </c>
       <c r="D623" s="10"/>
       <c r="E623" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H623" s="2"/>
     </row>
@@ -38353,7 +38276,7 @@
       </c>
       <c r="D624" s="10"/>
       <c r="E624" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H624" s="2"/>
     </row>
@@ -38369,7 +38292,7 @@
       </c>
       <c r="D625" s="10"/>
       <c r="E625" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H625" s="2"/>
     </row>
@@ -38385,7 +38308,7 @@
       </c>
       <c r="D626" s="9"/>
       <c r="E626" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F626" s="5"/>
       <c r="G626" s="5"/>
@@ -38409,7 +38332,7 @@
       </c>
       <c r="D627" s="9"/>
       <c r="E627" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F627" s="5"/>
       <c r="G627" s="5"/>
@@ -38433,7 +38356,7 @@
       </c>
       <c r="D628" s="10"/>
       <c r="E628" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H628" s="2"/>
     </row>
@@ -38449,7 +38372,7 @@
       </c>
       <c r="D629" s="10"/>
       <c r="E629" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H629" s="2"/>
     </row>
@@ -38465,7 +38388,7 @@
       </c>
       <c r="D630" s="9"/>
       <c r="E630" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F630" s="5"/>
       <c r="G630" s="5"/>
@@ -38489,7 +38412,7 @@
       </c>
       <c r="D631" s="9"/>
       <c r="E631" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F631" s="5"/>
       <c r="G631" s="5"/>
@@ -38513,7 +38436,7 @@
       </c>
       <c r="D632" s="9"/>
       <c r="E632" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F632" s="5"/>
       <c r="G632" s="5"/>
@@ -38537,7 +38460,7 @@
       </c>
       <c r="D633" s="9"/>
       <c r="E633" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F633" s="5"/>
       <c r="G633" s="5"/>
@@ -38561,7 +38484,7 @@
       </c>
       <c r="D634" s="9"/>
       <c r="E634" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F634" s="5"/>
       <c r="G634" s="5"/>
@@ -38585,7 +38508,7 @@
       </c>
       <c r="D635" s="9"/>
       <c r="E635" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F635" s="5"/>
       <c r="G635" s="5"/>
@@ -38609,7 +38532,7 @@
       </c>
       <c r="D636" s="9"/>
       <c r="E636" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F636" s="5"/>
       <c r="G636" s="5"/>
@@ -38633,7 +38556,7 @@
       </c>
       <c r="D637" s="9"/>
       <c r="E637" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F637" s="5"/>
       <c r="G637" s="5"/>
@@ -38657,7 +38580,7 @@
       </c>
       <c r="D638" s="10"/>
       <c r="E638" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H638" s="2" t="s">
         <v>2873</v>
@@ -38678,7 +38601,7 @@
       </c>
       <c r="D639" s="9"/>
       <c r="E639" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F639" s="5"/>
       <c r="G639" s="5"/>
@@ -38702,7 +38625,7 @@
       </c>
       <c r="D640" s="9"/>
       <c r="E640" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F640" s="5"/>
       <c r="G640" s="5"/>
@@ -38726,7 +38649,7 @@
       </c>
       <c r="D641" s="10"/>
       <c r="E641" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H641" s="2" t="s">
         <v>2876</v>
@@ -38747,7 +38670,7 @@
       </c>
       <c r="D642" s="9"/>
       <c r="E642" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F642" s="5"/>
       <c r="G642" s="5"/>
@@ -38771,7 +38694,7 @@
       </c>
       <c r="D643" s="9"/>
       <c r="E643" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F643" s="5"/>
       <c r="G643" s="5"/>
@@ -38795,7 +38718,7 @@
       </c>
       <c r="D644" s="9"/>
       <c r="E644" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F644" s="5"/>
       <c r="G644" s="5"/>
@@ -38819,7 +38742,7 @@
       </c>
       <c r="D645" s="9"/>
       <c r="E645" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F645" s="5"/>
       <c r="G645" s="5"/>
@@ -38843,7 +38766,7 @@
       </c>
       <c r="D646" s="9"/>
       <c r="E646" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F646" s="5"/>
       <c r="G646" s="5"/>
@@ -38867,7 +38790,7 @@
       </c>
       <c r="D647" s="9"/>
       <c r="E647" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F647" s="5"/>
       <c r="G647" s="5"/>
@@ -38891,7 +38814,7 @@
       </c>
       <c r="D648" s="9"/>
       <c r="E648" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F648" s="5"/>
       <c r="G648" s="5"/>
@@ -38915,7 +38838,7 @@
       </c>
       <c r="D649" s="9"/>
       <c r="E649" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F649" s="5"/>
       <c r="G649" s="5"/>
@@ -38939,7 +38862,7 @@
       </c>
       <c r="D650" s="9"/>
       <c r="E650" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F650" s="5"/>
       <c r="G650" s="5"/>
@@ -38963,7 +38886,7 @@
       </c>
       <c r="D651" s="9"/>
       <c r="E651" s="6" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F651" s="5"/>
       <c r="G651" s="5"/>
@@ -38987,7 +38910,7 @@
       </c>
       <c r="D652" s="9"/>
       <c r="E652" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F652" s="5"/>
       <c r="G652" s="5"/>
@@ -39011,7 +38934,7 @@
       </c>
       <c r="D653" s="9"/>
       <c r="E653" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F653" s="5"/>
       <c r="G653" s="5"/>
@@ -39035,7 +38958,7 @@
       </c>
       <c r="D654" s="9"/>
       <c r="E654" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F654" s="5"/>
       <c r="G654" s="5"/>
@@ -39059,7 +38982,7 @@
       </c>
       <c r="D655" s="10"/>
       <c r="E655" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H655" s="2" t="s">
         <v>2890</v>
@@ -39080,7 +39003,7 @@
       </c>
       <c r="D656" s="9"/>
       <c r="E656" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F656" s="5"/>
       <c r="G656" s="5"/>
@@ -39104,7 +39027,7 @@
       </c>
       <c r="D657" s="9"/>
       <c r="E657" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F657" s="5"/>
       <c r="G657" s="5"/>
@@ -39128,7 +39051,7 @@
       </c>
       <c r="D658" s="9"/>
       <c r="E658" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F658" s="5"/>
       <c r="G658" s="5"/>
@@ -39152,7 +39075,7 @@
       </c>
       <c r="D659" s="9"/>
       <c r="E659" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F659" s="5"/>
       <c r="G659" s="5"/>
@@ -39176,7 +39099,7 @@
       </c>
       <c r="D660" s="10"/>
       <c r="E660" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H660" s="2" t="s">
         <v>2895</v>
@@ -39197,7 +39120,7 @@
       </c>
       <c r="D661" s="9"/>
       <c r="E661" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F661" s="5"/>
       <c r="G661" s="5"/>
@@ -39221,7 +39144,7 @@
       </c>
       <c r="D662" s="9"/>
       <c r="E662" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F662" s="5"/>
       <c r="G662" s="5"/>
@@ -39245,7 +39168,7 @@
       </c>
       <c r="D663" s="9"/>
       <c r="E663" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F663" s="5"/>
       <c r="G663" s="5"/>
@@ -39269,7 +39192,7 @@
       </c>
       <c r="D664" s="9"/>
       <c r="E664" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F664" s="5"/>
       <c r="G664" s="5"/>
@@ -39293,7 +39216,7 @@
       </c>
       <c r="D665" s="9"/>
       <c r="E665" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F665" s="5"/>
       <c r="G665" s="5"/>
@@ -39317,7 +39240,7 @@
       </c>
       <c r="D666" s="9"/>
       <c r="E666" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F666" s="5"/>
       <c r="G666" s="5"/>
@@ -39341,7 +39264,7 @@
       </c>
       <c r="D667" s="9"/>
       <c r="E667" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F667" s="5"/>
       <c r="G667" s="5"/>
@@ -39365,7 +39288,7 @@
       </c>
       <c r="D668" s="9"/>
       <c r="E668" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F668" s="5"/>
       <c r="G668" s="5"/>
@@ -39389,7 +39312,7 @@
       </c>
       <c r="D669" s="9"/>
       <c r="E669" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F669" s="5"/>
       <c r="G669" s="5"/>
@@ -39413,7 +39336,7 @@
       </c>
       <c r="D670" s="9"/>
       <c r="E670" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F670" s="5"/>
       <c r="G670" s="5"/>
@@ -39437,7 +39360,7 @@
       </c>
       <c r="D671" s="9"/>
       <c r="E671" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F671" s="5"/>
       <c r="G671" s="5"/>
@@ -39461,7 +39384,7 @@
       </c>
       <c r="D672" s="9"/>
       <c r="E672" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F672" s="5"/>
       <c r="G672" s="5"/>
@@ -39485,7 +39408,7 @@
       </c>
       <c r="D673" s="9"/>
       <c r="E673" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F673" s="5"/>
       <c r="G673" s="5"/>
@@ -39509,10 +39432,10 @@
       </c>
       <c r="D674" s="9"/>
       <c r="E674" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F674" s="5" t="s">
-        <v>3986</v>
+        <v>3984</v>
       </c>
       <c r="G674" s="5"/>
       <c r="H674" s="2" t="s">
@@ -39535,7 +39458,7 @@
       </c>
       <c r="D675" s="9"/>
       <c r="E675" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F675" s="5"/>
       <c r="G675" s="5"/>
@@ -39559,7 +39482,7 @@
       </c>
       <c r="D676" s="9"/>
       <c r="E676" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F676" s="5"/>
       <c r="G676" s="5"/>
@@ -39583,7 +39506,7 @@
       </c>
       <c r="D677" s="9"/>
       <c r="E677" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F677" s="5"/>
       <c r="G677" s="5"/>
@@ -39607,7 +39530,7 @@
       </c>
       <c r="D678" s="9"/>
       <c r="E678" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F678" s="5"/>
       <c r="G678" s="5"/>
@@ -39631,7 +39554,7 @@
       </c>
       <c r="D679" s="10"/>
       <c r="E679" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H679" s="2" t="s">
         <v>2914</v>
@@ -39652,7 +39575,7 @@
       </c>
       <c r="D680" s="10"/>
       <c r="E680" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H680" s="2" t="s">
         <v>2452</v>
@@ -39673,7 +39596,7 @@
       </c>
       <c r="D681" s="9"/>
       <c r="E681" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F681" s="5"/>
       <c r="G681" s="5"/>
@@ -39697,7 +39620,7 @@
       </c>
       <c r="D682" s="10"/>
       <c r="E682" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H682" s="2" t="s">
         <v>2916</v>
@@ -39718,7 +39641,7 @@
       </c>
       <c r="D683" s="10"/>
       <c r="E683" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H683" s="2" t="s">
         <v>2917</v>
@@ -39739,7 +39662,7 @@
       </c>
       <c r="D684" s="9"/>
       <c r="E684" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F684" s="5"/>
       <c r="G684" s="5"/>
@@ -39763,7 +39686,7 @@
       </c>
       <c r="D685" s="9"/>
       <c r="E685" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F685" s="5"/>
       <c r="G685" s="5"/>
@@ -39787,7 +39710,7 @@
       </c>
       <c r="D686" s="10"/>
       <c r="E686" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H686" s="2"/>
     </row>
@@ -39803,7 +39726,7 @@
       </c>
       <c r="D687" s="10"/>
       <c r="E687" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H687" s="2" t="s">
         <v>2920</v>
@@ -39824,7 +39747,7 @@
       </c>
       <c r="D688" s="9"/>
       <c r="E688" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F688" s="5"/>
       <c r="G688" s="5"/>
@@ -39848,7 +39771,7 @@
       </c>
       <c r="D689" s="9"/>
       <c r="E689" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F689" s="5"/>
       <c r="G689" s="5"/>
@@ -39872,7 +39795,7 @@
       </c>
       <c r="D690" s="9"/>
       <c r="E690" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F690" s="5"/>
       <c r="G690" s="5"/>
@@ -39896,7 +39819,7 @@
       </c>
       <c r="D691" s="10"/>
       <c r="E691" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H691" s="2" t="s">
         <v>2923</v>
@@ -39917,10 +39840,10 @@
       </c>
       <c r="D692" s="10"/>
       <c r="E692" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F692" s="5" t="s">
-        <v>3987</v>
+        <v>3985</v>
       </c>
       <c r="H692" s="2" t="s">
         <v>2924</v>
@@ -39941,7 +39864,7 @@
       </c>
       <c r="D693" s="9"/>
       <c r="E693" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F693" s="5"/>
       <c r="G693" s="5"/>
@@ -39965,7 +39888,7 @@
       </c>
       <c r="D694" s="9"/>
       <c r="E694" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F694" s="5"/>
       <c r="G694" s="5"/>
@@ -39989,7 +39912,7 @@
       </c>
       <c r="D695" s="9"/>
       <c r="E695" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F695" s="5"/>
       <c r="G695" s="5"/>
@@ -40013,7 +39936,7 @@
       </c>
       <c r="D696" s="9"/>
       <c r="E696" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F696" s="5"/>
       <c r="G696" s="5"/>
@@ -40037,7 +39960,7 @@
       </c>
       <c r="D697" s="9"/>
       <c r="E697" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F697" s="5"/>
       <c r="G697" s="5"/>
@@ -40061,7 +39984,7 @@
       </c>
       <c r="D698" s="9"/>
       <c r="E698" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F698" s="5"/>
       <c r="G698" s="5"/>
@@ -40085,7 +40008,7 @@
       </c>
       <c r="D699" s="9"/>
       <c r="E699" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F699" s="5"/>
       <c r="G699" s="5"/>
@@ -40109,7 +40032,7 @@
       </c>
       <c r="D700" s="9"/>
       <c r="E700" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F700" s="5"/>
       <c r="G700" s="5"/>
@@ -40133,7 +40056,7 @@
       </c>
       <c r="D701" s="9"/>
       <c r="E701" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F701" s="5"/>
       <c r="G701" s="5"/>
@@ -40157,7 +40080,7 @@
       </c>
       <c r="D702" s="9"/>
       <c r="E702" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F702" s="5"/>
       <c r="G702" s="5"/>
@@ -40181,7 +40104,7 @@
       </c>
       <c r="D703" s="9"/>
       <c r="E703" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F703" s="5"/>
       <c r="G703" s="5"/>
@@ -40205,7 +40128,7 @@
       </c>
       <c r="D704" s="9"/>
       <c r="E704" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F704" s="5"/>
       <c r="G704" s="5"/>
@@ -40229,7 +40152,7 @@
       </c>
       <c r="D705" s="9"/>
       <c r="E705" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F705" s="5"/>
       <c r="G705" s="5"/>
@@ -40253,7 +40176,7 @@
       </c>
       <c r="D706" s="9"/>
       <c r="E706" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F706" s="5"/>
       <c r="G706" s="5"/>
@@ -40277,7 +40200,7 @@
       </c>
       <c r="D707" s="10"/>
       <c r="E707" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H707" s="2" t="s">
         <v>2939</v>
@@ -40298,7 +40221,7 @@
       </c>
       <c r="D708" s="10"/>
       <c r="E708" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H708" s="2" t="s">
         <v>2940</v>
@@ -40319,7 +40242,7 @@
       </c>
       <c r="D709" s="9"/>
       <c r="E709" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F709" s="5"/>
       <c r="G709" s="5"/>
@@ -40343,7 +40266,7 @@
       </c>
       <c r="D710" s="9"/>
       <c r="E710" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F710" s="5"/>
       <c r="G710" s="5"/>
@@ -40367,7 +40290,7 @@
       </c>
       <c r="D711" s="10"/>
       <c r="E711" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H711" s="2" t="s">
         <v>2943</v>
@@ -40388,7 +40311,7 @@
       </c>
       <c r="D712" s="9"/>
       <c r="E712" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F712" s="5"/>
       <c r="G712" s="5"/>
@@ -40412,7 +40335,7 @@
       </c>
       <c r="D713" s="9"/>
       <c r="E713" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F713" s="5"/>
       <c r="G713" s="5"/>
@@ -40436,7 +40359,7 @@
       </c>
       <c r="D714" s="9"/>
       <c r="E714" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F714" s="5"/>
       <c r="G714" s="5"/>
@@ -40460,7 +40383,7 @@
       </c>
       <c r="D715" s="9"/>
       <c r="E715" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H715" s="2" t="s">
         <v>2947</v>
@@ -40481,7 +40404,7 @@
       </c>
       <c r="D716" s="9"/>
       <c r="E716" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F716" s="5"/>
       <c r="G716" s="5"/>
@@ -40505,7 +40428,7 @@
       </c>
       <c r="D717" s="9"/>
       <c r="E717" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F717" s="5"/>
       <c r="G717" s="5"/>
@@ -40529,7 +40452,7 @@
       </c>
       <c r="D718" s="10"/>
       <c r="E718" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H718" s="2" t="s">
         <v>2950</v>
@@ -40552,10 +40475,10 @@
         <v>3888</v>
       </c>
       <c r="E719" s="5" t="s">
-        <v>3989</v>
+        <v>3987</v>
       </c>
       <c r="F719" s="5" t="s">
-        <v>3990</v>
+        <v>3988</v>
       </c>
       <c r="G719" s="5"/>
       <c r="H719" s="2" t="s">
@@ -40577,10 +40500,10 @@
         <v>3891</v>
       </c>
       <c r="D720" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E720" s="5" t="s">
-        <v>3989</v>
+        <v>3987</v>
       </c>
       <c r="H720" s="2" t="s">
         <v>2952</v>
@@ -40599,7 +40522,7 @@
       <c r="C721" s="10"/>
       <c r="D721" s="10"/>
       <c r="E721" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H721" s="2"/>
     </row>
@@ -40617,10 +40540,10 @@
         <v>3888</v>
       </c>
       <c r="E722" s="5" t="s">
-        <v>3991</v>
+        <v>3989</v>
       </c>
       <c r="F722" s="5" t="s">
-        <v>3992</v>
+        <v>3990</v>
       </c>
       <c r="G722" s="5"/>
       <c r="H722" s="2" t="s">
@@ -40641,7 +40564,7 @@
       <c r="C723" s="10"/>
       <c r="D723" s="10"/>
       <c r="E723" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H723" s="2"/>
     </row>
@@ -40656,10 +40579,10 @@
         <v>3891</v>
       </c>
       <c r="D724" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E724" s="5" t="s">
-        <v>3991</v>
+        <v>3989</v>
       </c>
       <c r="F724" s="5"/>
       <c r="G724" s="5"/>
@@ -40682,10 +40605,10 @@
         <v>3891</v>
       </c>
       <c r="D725" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E725" s="5" t="s">
-        <v>3991</v>
+        <v>3989</v>
       </c>
       <c r="H725" s="2" t="s">
         <v>2955</v>
@@ -40706,7 +40629,7 @@
       </c>
       <c r="D726" s="9"/>
       <c r="E726" s="5" t="s">
-        <v>3982</v>
+        <v>3980</v>
       </c>
       <c r="F726" s="5"/>
       <c r="G726" s="5"/>
@@ -40729,10 +40652,10 @@
         <v>3891</v>
       </c>
       <c r="D727" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E727" s="5" t="s">
-        <v>3993</v>
+        <v>3991</v>
       </c>
       <c r="H727" s="2" t="s">
         <v>2957</v>
@@ -40752,13 +40675,13 @@
         <v>3891</v>
       </c>
       <c r="D728" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E728" s="5" t="s">
-        <v>3993</v>
+        <v>3991</v>
       </c>
       <c r="F728" s="5" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="H728" s="2" t="s">
         <v>2958</v>
@@ -40778,13 +40701,13 @@
         <v>3891</v>
       </c>
       <c r="D729" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E729" s="5" t="s">
-        <v>3995</v>
+        <v>3993</v>
       </c>
       <c r="F729" s="5" t="s">
-        <v>3996</v>
+        <v>3994</v>
       </c>
       <c r="H729" s="2"/>
     </row>
@@ -40818,7 +40741,7 @@
       <c r="C731" s="10"/>
       <c r="D731" s="10"/>
       <c r="F731" s="5" t="s">
-        <v>3973</v>
+        <v>3971</v>
       </c>
       <c r="H731" s="2"/>
     </row>
@@ -40864,7 +40787,7 @@
       <c r="C734" s="10"/>
       <c r="D734" s="10"/>
       <c r="E734" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H734" s="2" t="s">
         <v>2962</v>
@@ -40885,7 +40808,7 @@
       </c>
       <c r="D735" s="9"/>
       <c r="E735" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F735" s="5"/>
       <c r="G735" s="5"/>
@@ -40909,7 +40832,7 @@
       </c>
       <c r="D736" s="9"/>
       <c r="E736" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F736" s="5"/>
       <c r="G736" s="5"/>
@@ -40933,7 +40856,7 @@
       </c>
       <c r="D737" s="9"/>
       <c r="E737" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F737" s="5"/>
       <c r="G737" s="5"/>
@@ -40955,7 +40878,7 @@
       <c r="C738" s="9"/>
       <c r="D738" s="9"/>
       <c r="E738" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F738" s="5"/>
       <c r="G738" s="5"/>
@@ -40979,7 +40902,7 @@
       </c>
       <c r="D739" s="9"/>
       <c r="E739" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F739" s="5"/>
       <c r="G739" s="5"/>
@@ -41003,7 +40926,7 @@
       </c>
       <c r="D740" s="9"/>
       <c r="E740" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F740" s="5"/>
       <c r="G740" s="5"/>
@@ -41027,7 +40950,7 @@
       </c>
       <c r="D741" s="9"/>
       <c r="E741" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F741" s="5"/>
       <c r="G741" s="5"/>
@@ -41051,7 +40974,7 @@
       </c>
       <c r="D742" s="9"/>
       <c r="E742" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F742" s="5"/>
       <c r="G742" s="5"/>
@@ -41075,7 +40998,7 @@
       </c>
       <c r="D743" s="9"/>
       <c r="E743" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F743" s="5"/>
       <c r="G743" s="5"/>
@@ -41099,7 +41022,7 @@
       </c>
       <c r="D744" s="9"/>
       <c r="E744" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F744" s="5"/>
       <c r="G744" s="5"/>
@@ -41123,7 +41046,7 @@
       </c>
       <c r="D745" s="9"/>
       <c r="E745" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F745" s="5"/>
       <c r="G745" s="5"/>
@@ -41147,7 +41070,7 @@
       </c>
       <c r="D746" s="9"/>
       <c r="E746" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H746" s="2" t="s">
         <v>2974</v>
@@ -41168,7 +41091,7 @@
       </c>
       <c r="D747" s="9"/>
       <c r="E747" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H747" s="2" t="s">
         <v>2975</v>
@@ -41189,7 +41112,7 @@
       </c>
       <c r="D748" s="9"/>
       <c r="E748" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H748" s="2" t="s">
         <v>2976</v>
@@ -41208,7 +41131,7 @@
       <c r="C749" s="10"/>
       <c r="D749" s="10"/>
       <c r="E749" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H749" s="2"/>
     </row>
@@ -41224,7 +41147,7 @@
       </c>
       <c r="D750" s="15"/>
       <c r="E750" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H750" s="2" t="s">
         <v>2977</v>
@@ -41245,7 +41168,7 @@
       </c>
       <c r="D751" s="15"/>
       <c r="E751" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F751" s="5"/>
       <c r="G751" s="5"/>
@@ -41269,7 +41192,7 @@
       </c>
       <c r="D752" s="15"/>
       <c r="E752" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F752" s="5"/>
       <c r="G752" s="5"/>
@@ -41293,7 +41216,7 @@
       </c>
       <c r="D753" s="15"/>
       <c r="E753" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F753" s="5"/>
       <c r="G753" s="5"/>
@@ -41317,7 +41240,7 @@
       </c>
       <c r="D754" s="15"/>
       <c r="E754" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F754" s="5"/>
       <c r="G754" s="5"/>
@@ -41341,7 +41264,7 @@
       </c>
       <c r="D755" s="15"/>
       <c r="E755" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F755" s="5"/>
       <c r="G755" s="5"/>
@@ -41365,7 +41288,7 @@
       </c>
       <c r="D756" s="15"/>
       <c r="E756" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F756" s="5"/>
       <c r="G756" s="5"/>
@@ -41389,7 +41312,7 @@
       </c>
       <c r="D757" s="15"/>
       <c r="E757" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H757" s="2" t="s">
         <v>2984</v>
@@ -41410,7 +41333,7 @@
       </c>
       <c r="D758" s="15"/>
       <c r="E758" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F758" s="5"/>
       <c r="G758" s="5"/>
@@ -41432,7 +41355,7 @@
       <c r="C759" s="10"/>
       <c r="D759" s="10"/>
       <c r="E759" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H759" s="2"/>
     </row>
@@ -41446,7 +41369,7 @@
       <c r="C760" s="10"/>
       <c r="D760" s="10"/>
       <c r="E760" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H760" s="2"/>
     </row>
@@ -41460,7 +41383,7 @@
       <c r="C761" s="10"/>
       <c r="D761" s="10"/>
       <c r="E761" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H761" s="2"/>
     </row>
@@ -41474,7 +41397,7 @@
       <c r="C762" s="10"/>
       <c r="D762" s="10"/>
       <c r="E762" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H762" s="2"/>
     </row>
@@ -41488,7 +41411,7 @@
       <c r="C763" s="10"/>
       <c r="D763" s="10"/>
       <c r="E763" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H763" s="2"/>
     </row>
@@ -41502,7 +41425,7 @@
       <c r="C764" s="10"/>
       <c r="D764" s="10"/>
       <c r="E764" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H764" s="2"/>
     </row>
@@ -41516,7 +41439,7 @@
       <c r="C765" s="10"/>
       <c r="D765" s="10"/>
       <c r="E765" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H765" s="2"/>
     </row>
@@ -41532,7 +41455,7 @@
       </c>
       <c r="D766" s="9"/>
       <c r="E766" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F766" s="5"/>
       <c r="G766" s="5"/>
@@ -41556,7 +41479,7 @@
       </c>
       <c r="D767" s="9"/>
       <c r="E767" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H767" s="2" t="s">
         <v>2987</v>
@@ -41577,7 +41500,7 @@
       </c>
       <c r="D768" s="9"/>
       <c r="E768" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H768" s="2" t="s">
         <v>2988</v>
@@ -41598,7 +41521,7 @@
       </c>
       <c r="D769" s="9"/>
       <c r="E769" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F769" s="5"/>
       <c r="G769" s="5"/>
@@ -41622,7 +41545,7 @@
       </c>
       <c r="D770" s="9"/>
       <c r="E770" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H770" s="2" t="s">
         <v>2990</v>
@@ -41643,7 +41566,7 @@
       </c>
       <c r="D771" s="9"/>
       <c r="E771" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F771" s="5"/>
       <c r="G771" s="5"/>
@@ -41667,7 +41590,7 @@
       </c>
       <c r="D772" s="9"/>
       <c r="E772" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F772" s="5"/>
       <c r="G772" s="5"/>
@@ -41691,7 +41614,7 @@
       </c>
       <c r="D773" s="9"/>
       <c r="E773" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H773" s="2" t="s">
         <v>2993</v>
@@ -41712,7 +41635,7 @@
       </c>
       <c r="D774" s="9"/>
       <c r="E774" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F774" s="5"/>
       <c r="G774" s="5"/>
@@ -41736,7 +41659,7 @@
       </c>
       <c r="D775" s="9"/>
       <c r="E775" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H775" s="2" t="s">
         <v>2995</v>
@@ -41757,7 +41680,7 @@
       </c>
       <c r="D776" s="9"/>
       <c r="E776" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H776" s="2" t="s">
         <v>2996</v>
@@ -41778,7 +41701,7 @@
       </c>
       <c r="D777" s="9"/>
       <c r="E777" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H777" s="2" t="s">
         <v>2997</v>
@@ -41799,7 +41722,7 @@
       </c>
       <c r="D778" s="9"/>
       <c r="E778" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H778" s="2" t="s">
         <v>2998</v>
@@ -41820,7 +41743,7 @@
       </c>
       <c r="D779" s="9"/>
       <c r="E779" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H779" s="2" t="s">
         <v>2999</v>
@@ -41861,7 +41784,7 @@
       </c>
       <c r="D781" s="15"/>
       <c r="E781" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F781" s="5"/>
       <c r="G781" s="5"/>
@@ -41885,7 +41808,7 @@
       </c>
       <c r="D782" s="15"/>
       <c r="E782" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H782" s="2" t="s">
         <v>3002</v>
@@ -41906,7 +41829,7 @@
       </c>
       <c r="D783" s="15"/>
       <c r="E783" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H783" s="2" t="s">
         <v>3003</v>
@@ -41927,7 +41850,7 @@
       </c>
       <c r="D784" s="9"/>
       <c r="E784" s="5" t="s">
-        <v>3997</v>
+        <v>3995</v>
       </c>
       <c r="F784" s="5"/>
       <c r="G784" s="5"/>
@@ -41951,7 +41874,7 @@
       </c>
       <c r="D785" s="15"/>
       <c r="E785" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F785" s="5"/>
       <c r="G785" s="5"/>
@@ -41975,7 +41898,7 @@
       </c>
       <c r="D786" s="15"/>
       <c r="E786" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H786" s="2" t="s">
         <v>3006</v>
@@ -41996,7 +41919,7 @@
       </c>
       <c r="D787" s="15"/>
       <c r="E787" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F787" s="5"/>
       <c r="G787" s="5"/>
@@ -42020,7 +41943,7 @@
       </c>
       <c r="D788" s="9"/>
       <c r="E788" s="5" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="F788" s="5"/>
       <c r="G788" s="5"/>
@@ -42044,10 +41967,10 @@
       </c>
       <c r="D789" s="15"/>
       <c r="E789" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F789" s="5" t="s">
-        <v>3998</v>
+        <v>3996</v>
       </c>
       <c r="G789" s="5"/>
       <c r="H789" s="2" t="s">
@@ -42070,10 +41993,10 @@
       </c>
       <c r="D790" s="15"/>
       <c r="E790" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F790" s="5" t="s">
-        <v>3999</v>
+        <v>3997</v>
       </c>
       <c r="G790" s="5"/>
       <c r="H790" s="2" t="s">
@@ -42096,7 +42019,7 @@
       </c>
       <c r="D791" s="15"/>
       <c r="E791" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F791" s="5"/>
       <c r="G791" s="5"/>
@@ -42120,7 +42043,7 @@
       </c>
       <c r="D792" s="15"/>
       <c r="E792" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F792" s="5"/>
       <c r="G792" s="5"/>
@@ -42144,7 +42067,7 @@
       </c>
       <c r="D793" s="15"/>
       <c r="E793" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H793" s="2" t="s">
         <v>3013</v>
@@ -42165,7 +42088,7 @@
       </c>
       <c r="D794" s="15"/>
       <c r="E794" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H794" s="2" t="s">
         <v>3014</v>
@@ -42186,7 +42109,7 @@
       </c>
       <c r="D795" s="15"/>
       <c r="E795" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F795" s="5"/>
       <c r="G795" s="5"/>
@@ -42210,7 +42133,7 @@
       </c>
       <c r="D796" s="15"/>
       <c r="E796" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H796" s="2" t="s">
         <v>3016</v>
@@ -42231,7 +42154,7 @@
       </c>
       <c r="D797" s="15"/>
       <c r="E797" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F797" s="5"/>
       <c r="G797" s="5"/>
@@ -42255,7 +42178,7 @@
       </c>
       <c r="D798" s="15"/>
       <c r="E798" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F798" s="5"/>
       <c r="G798" s="5"/>
@@ -42279,7 +42202,7 @@
       </c>
       <c r="D799" s="15"/>
       <c r="E799" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F799" s="5"/>
       <c r="G799" s="5"/>
@@ -42303,7 +42226,7 @@
       </c>
       <c r="D800" s="15"/>
       <c r="E800" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F800" s="5"/>
       <c r="G800" s="5"/>
@@ -42327,7 +42250,7 @@
       </c>
       <c r="D801" s="15"/>
       <c r="E801" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F801" s="5"/>
       <c r="G801" s="5"/>
@@ -42351,7 +42274,7 @@
       </c>
       <c r="D802" s="15"/>
       <c r="E802" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F802" s="5"/>
       <c r="G802" s="5"/>
@@ -42375,7 +42298,7 @@
       </c>
       <c r="D803" s="15"/>
       <c r="E803" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F803" s="5"/>
       <c r="G803" s="5"/>
@@ -42399,7 +42322,7 @@
       </c>
       <c r="D804" s="15"/>
       <c r="E804" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H804" s="2" t="s">
         <v>3024</v>
@@ -42420,7 +42343,7 @@
       </c>
       <c r="D805" s="15"/>
       <c r="E805" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F805" s="5"/>
       <c r="G805" s="5"/>
@@ -42444,7 +42367,7 @@
       </c>
       <c r="D806" s="15"/>
       <c r="E806" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F806" s="5"/>
       <c r="G806" s="5"/>
@@ -42468,7 +42391,7 @@
       </c>
       <c r="D807" s="15"/>
       <c r="E807" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F807" s="5"/>
       <c r="G807" s="5"/>
@@ -42492,7 +42415,7 @@
       </c>
       <c r="D808" s="15"/>
       <c r="E808" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F808" s="5"/>
       <c r="G808" s="5"/>
@@ -42516,7 +42439,7 @@
       </c>
       <c r="D809" s="15"/>
       <c r="E809" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F809" s="5"/>
       <c r="G809" s="5"/>
@@ -42540,7 +42463,7 @@
       </c>
       <c r="D810" s="15"/>
       <c r="E810" s="14" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="F810" s="5"/>
       <c r="G810" s="5"/>
@@ -42564,7 +42487,7 @@
       </c>
       <c r="D811" s="15"/>
       <c r="E811" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H811" s="2" t="s">
         <v>3031</v>
@@ -42585,7 +42508,7 @@
       </c>
       <c r="D812" s="9"/>
       <c r="E812" s="5" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
       <c r="F812" s="5"/>
       <c r="G812" s="5"/>
@@ -42609,7 +42532,7 @@
       </c>
       <c r="D813" s="10"/>
       <c r="E813" s="5" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
       <c r="H813" s="2" t="s">
         <v>3033</v>
@@ -42630,7 +42553,7 @@
       </c>
       <c r="D814" s="10"/>
       <c r="E814" s="5" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="H814" s="2" t="s">
         <v>3034</v>
@@ -42651,7 +42574,7 @@
       </c>
       <c r="D815" s="10"/>
       <c r="E815" s="5" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="H815" s="2" t="s">
         <v>3035</v>
@@ -42672,7 +42595,7 @@
       </c>
       <c r="D816" s="15"/>
       <c r="E816" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H816" s="2" t="s">
         <v>3036</v>
@@ -42693,7 +42616,7 @@
       </c>
       <c r="D817" s="15"/>
       <c r="E817" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F817" s="5"/>
       <c r="G817" s="5"/>
@@ -42717,7 +42640,7 @@
       </c>
       <c r="D818" s="10"/>
       <c r="E818" s="5" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="H818" s="2" t="s">
         <v>3038</v>
@@ -42738,7 +42661,7 @@
       </c>
       <c r="D819" s="15"/>
       <c r="E819" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F819" s="5"/>
       <c r="G819" s="5"/>
@@ -42762,7 +42685,7 @@
       </c>
       <c r="D820" s="15"/>
       <c r="E820" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F820" s="5"/>
       <c r="G820" s="5"/>
@@ -42802,7 +42725,7 @@
       </c>
       <c r="D822" s="15"/>
       <c r="E822" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F822" s="5"/>
       <c r="G822" s="5"/>
@@ -42824,7 +42747,7 @@
       <c r="C823" s="9"/>
       <c r="D823" s="9"/>
       <c r="E823" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F823" s="5"/>
       <c r="G823" s="5"/>
@@ -42846,7 +42769,7 @@
       <c r="C824" s="9"/>
       <c r="D824" s="9"/>
       <c r="E824" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F824" s="5"/>
       <c r="G824" s="5"/>
@@ -42870,7 +42793,7 @@
       </c>
       <c r="D825" s="10"/>
       <c r="E825" s="5" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="H825" s="2" t="s">
         <v>3045</v>
@@ -42891,7 +42814,7 @@
       </c>
       <c r="D826" s="15"/>
       <c r="E826" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H826" s="2" t="s">
         <v>3046</v>
@@ -42910,7 +42833,7 @@
       <c r="C827" s="10"/>
       <c r="D827" s="10"/>
       <c r="E827" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H827" s="2"/>
     </row>
@@ -42924,7 +42847,7 @@
       <c r="C828" s="10"/>
       <c r="D828" s="10"/>
       <c r="E828" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H828" s="2"/>
     </row>
@@ -42938,7 +42861,7 @@
       <c r="C829" s="10"/>
       <c r="D829" s="10"/>
       <c r="E829" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H829" s="2"/>
     </row>
@@ -42952,7 +42875,7 @@
       <c r="C830" s="10"/>
       <c r="D830" s="10"/>
       <c r="E830" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H830" s="2"/>
     </row>
@@ -42966,7 +42889,7 @@
       <c r="C831" s="10"/>
       <c r="D831" s="10"/>
       <c r="E831" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H831" s="2"/>
     </row>
@@ -42980,7 +42903,7 @@
       <c r="C832" s="10"/>
       <c r="D832" s="10"/>
       <c r="E832" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H832" s="2"/>
     </row>
@@ -42994,7 +42917,7 @@
       <c r="C833" s="10"/>
       <c r="D833" s="10"/>
       <c r="E833" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H833" s="2"/>
     </row>
@@ -43008,7 +42931,7 @@
       <c r="C834" s="10"/>
       <c r="D834" s="10"/>
       <c r="E834" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H834" s="2"/>
     </row>
@@ -43022,7 +42945,7 @@
       <c r="C835" s="10"/>
       <c r="D835" s="10"/>
       <c r="E835" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H835" s="2"/>
     </row>
@@ -43036,7 +42959,7 @@
       <c r="C836" s="10"/>
       <c r="D836" s="10"/>
       <c r="E836" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H836" s="2"/>
     </row>
@@ -43050,7 +42973,7 @@
       <c r="C837" s="10"/>
       <c r="D837" s="10"/>
       <c r="E837" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H837" s="2"/>
     </row>
@@ -43064,7 +42987,7 @@
       <c r="C838" s="10"/>
       <c r="D838" s="10"/>
       <c r="E838" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H838" s="2"/>
     </row>
@@ -43078,7 +43001,7 @@
       <c r="C839" s="10"/>
       <c r="D839" s="10"/>
       <c r="E839" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H839" s="2"/>
     </row>
@@ -43092,7 +43015,7 @@
       <c r="C840" s="10"/>
       <c r="D840" s="10"/>
       <c r="E840" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H840" s="2"/>
     </row>
@@ -43106,7 +43029,7 @@
       <c r="C841" s="10"/>
       <c r="D841" s="10"/>
       <c r="E841" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H841" s="2"/>
     </row>
@@ -43120,7 +43043,7 @@
       <c r="C842" s="10"/>
       <c r="D842" s="10"/>
       <c r="E842" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H842" s="2"/>
     </row>
@@ -43134,7 +43057,7 @@
       <c r="C843" s="10"/>
       <c r="D843" s="10"/>
       <c r="E843" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H843" s="2"/>
     </row>
@@ -43148,7 +43071,7 @@
       <c r="C844" s="10"/>
       <c r="D844" s="10"/>
       <c r="E844" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H844" s="2"/>
     </row>
@@ -43162,7 +43085,7 @@
       <c r="C845" s="10"/>
       <c r="D845" s="10"/>
       <c r="E845" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H845" s="2"/>
     </row>
@@ -43178,10 +43101,10 @@
       </c>
       <c r="D846" s="15"/>
       <c r="E846" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F846" s="5" t="s">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="G846" s="5"/>
       <c r="H846" s="2" t="s">
@@ -43204,7 +43127,7 @@
       </c>
       <c r="D847" s="15"/>
       <c r="E847" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H847" s="2" t="s">
         <v>3048</v>
@@ -43225,7 +43148,7 @@
       </c>
       <c r="D848" s="15"/>
       <c r="E848" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F848" s="5"/>
       <c r="G848" s="5"/>
@@ -43249,7 +43172,7 @@
       </c>
       <c r="D849" s="15"/>
       <c r="E849" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F849" s="5"/>
       <c r="G849" s="5"/>
@@ -43271,7 +43194,7 @@
       <c r="C850" s="10"/>
       <c r="D850" s="10"/>
       <c r="E850" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H850" s="2"/>
     </row>
@@ -43287,7 +43210,7 @@
       </c>
       <c r="D851" s="15"/>
       <c r="E851" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F851" s="5"/>
       <c r="G851" s="5"/>
@@ -43311,7 +43234,7 @@
       </c>
       <c r="D852" s="15"/>
       <c r="E852" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H852" s="2" t="s">
         <v>3052</v>
@@ -43332,7 +43255,7 @@
       </c>
       <c r="D853" s="15"/>
       <c r="E853" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F853" s="5"/>
       <c r="G853" s="5"/>
@@ -43356,7 +43279,7 @@
       </c>
       <c r="D854" s="15"/>
       <c r="E854" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H854" s="2" t="s">
         <v>3054</v>
@@ -43377,7 +43300,7 @@
       </c>
       <c r="D855" s="15"/>
       <c r="E855" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H855" s="2"/>
     </row>
@@ -43393,7 +43316,7 @@
       </c>
       <c r="D856" s="15"/>
       <c r="E856" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F856" s="5"/>
       <c r="G856" s="5"/>
@@ -43417,7 +43340,7 @@
       </c>
       <c r="D857" s="15"/>
       <c r="E857" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F857" s="5"/>
       <c r="G857" s="5"/>
@@ -43441,7 +43364,7 @@
       </c>
       <c r="D858" s="15"/>
       <c r="E858" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F858" s="5"/>
       <c r="G858" s="5"/>
@@ -43465,7 +43388,7 @@
       </c>
       <c r="D859" s="15"/>
       <c r="E859" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F859" s="5"/>
       <c r="G859" s="5"/>
@@ -43489,7 +43412,7 @@
       </c>
       <c r="D860" s="15"/>
       <c r="E860" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F860" s="5"/>
       <c r="G860" s="5"/>
@@ -43513,7 +43436,7 @@
       </c>
       <c r="D861" s="15"/>
       <c r="E861" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F861" s="5"/>
       <c r="G861" s="5"/>
@@ -43537,7 +43460,7 @@
       </c>
       <c r="D862" s="15"/>
       <c r="E862" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F862" s="5"/>
       <c r="G862" s="5"/>
@@ -43561,7 +43484,7 @@
       </c>
       <c r="D863" s="15"/>
       <c r="E863" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F863" s="5"/>
       <c r="G863" s="5"/>
@@ -43585,7 +43508,7 @@
       </c>
       <c r="D864" s="15"/>
       <c r="E864" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F864" s="5"/>
       <c r="G864" s="5"/>
@@ -43609,7 +43532,7 @@
       </c>
       <c r="D865" s="19"/>
       <c r="E865" s="20" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F865" s="5"/>
       <c r="G865" s="5"/>
@@ -43633,7 +43556,7 @@
       </c>
       <c r="D866" s="15"/>
       <c r="E866" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F866" s="5"/>
       <c r="G866" s="5"/>
@@ -43657,7 +43580,7 @@
       </c>
       <c r="D867" s="15"/>
       <c r="E867" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F867" s="5"/>
       <c r="G867" s="5"/>
@@ -43681,7 +43604,7 @@
       </c>
       <c r="D868" s="15"/>
       <c r="E868" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H868" s="2" t="s">
         <v>3067</v>
@@ -43702,7 +43625,7 @@
       </c>
       <c r="D869" s="15"/>
       <c r="E869" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H869" s="2" t="s">
         <v>3068</v>
@@ -43723,7 +43646,7 @@
       </c>
       <c r="D870" s="15"/>
       <c r="E870" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H870" s="2"/>
     </row>
@@ -43739,7 +43662,7 @@
       </c>
       <c r="D871" s="15"/>
       <c r="E871" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H871" s="2"/>
     </row>
@@ -43755,7 +43678,7 @@
       </c>
       <c r="D872" s="15"/>
       <c r="E872" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H872" s="2"/>
     </row>
@@ -43771,7 +43694,7 @@
       </c>
       <c r="D873" s="15"/>
       <c r="E873" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H873" s="2"/>
     </row>
@@ -43787,7 +43710,7 @@
       </c>
       <c r="D874" s="15"/>
       <c r="E874" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H874" s="2"/>
     </row>
@@ -43803,7 +43726,7 @@
       </c>
       <c r="D875" s="15"/>
       <c r="E875" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H875" s="2"/>
     </row>
@@ -43819,7 +43742,7 @@
       </c>
       <c r="D876" s="15"/>
       <c r="E876" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H876" s="2"/>
     </row>
@@ -43835,7 +43758,7 @@
       </c>
       <c r="D877" s="15"/>
       <c r="E877" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H877" s="2"/>
     </row>
@@ -43851,7 +43774,7 @@
       </c>
       <c r="D878" s="15"/>
       <c r="E878" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F878" s="5"/>
       <c r="G878" s="5"/>
@@ -43875,7 +43798,7 @@
       </c>
       <c r="D879" s="15"/>
       <c r="E879" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F879" s="5"/>
       <c r="G879" s="5"/>
@@ -43897,7 +43820,7 @@
       <c r="C880" s="10"/>
       <c r="D880" s="10"/>
       <c r="E880" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H880" s="2"/>
     </row>
@@ -43911,7 +43834,7 @@
       <c r="C881" s="9"/>
       <c r="D881" s="9"/>
       <c r="E881" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F881" s="5"/>
       <c r="G881" s="5"/>
@@ -43933,7 +43856,7 @@
       <c r="C882" s="10"/>
       <c r="D882" s="10"/>
       <c r="E882" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H882" s="2"/>
     </row>
@@ -43949,7 +43872,7 @@
       </c>
       <c r="D883" s="15"/>
       <c r="E883" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F883" s="5"/>
       <c r="G883" s="5"/>
@@ -43973,7 +43896,7 @@
       </c>
       <c r="D884" s="15"/>
       <c r="E884" s="14" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F884" s="5"/>
       <c r="G884" s="5"/>
@@ -43999,10 +43922,10 @@
         <v>3888</v>
       </c>
       <c r="E885" s="5" t="s">
-        <v>3944</v>
+        <v>3942</v>
       </c>
       <c r="F885" s="5" t="s">
-        <v>3945</v>
+        <v>3943</v>
       </c>
       <c r="G885" s="5"/>
       <c r="H885" s="2" t="s">
@@ -44024,13 +43947,13 @@
         <v>3891</v>
       </c>
       <c r="D886" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E886" s="5" t="s">
+        <v>3942</v>
+      </c>
+      <c r="F886" s="5" t="s">
         <v>3944</v>
-      </c>
-      <c r="F886" s="5" t="s">
-        <v>3946</v>
       </c>
       <c r="G886" s="5"/>
       <c r="H886" s="2" t="s">
@@ -44053,7 +43976,7 @@
       </c>
       <c r="D887" s="10"/>
       <c r="E887" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H887" s="2" t="s">
         <v>3076</v>
@@ -44076,7 +43999,7 @@
         <v>3888</v>
       </c>
       <c r="E888" s="5" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="F888" s="5"/>
       <c r="G888" s="5"/>
@@ -44099,10 +44022,10 @@
         <v>3891</v>
       </c>
       <c r="D889" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E889" s="5" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="H889" s="2" t="s">
         <v>3078</v>
@@ -46836,10 +46759,10 @@
       </c>
       <c r="D1047" s="9"/>
       <c r="E1047" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1047" s="5" t="s">
-        <v>3936</v>
+        <v>3934</v>
       </c>
       <c r="G1047" s="5"/>
       <c r="H1047" s="2" t="s">
@@ -46860,7 +46783,7 @@
       <c r="C1048" s="10"/>
       <c r="D1048" s="10"/>
       <c r="F1048" s="5" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="H1048" s="2"/>
     </row>
@@ -46896,10 +46819,10 @@
       </c>
       <c r="D1050" s="10"/>
       <c r="E1050" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1050" s="5" t="s">
-        <v>3937</v>
+        <v>3935</v>
       </c>
       <c r="H1050" s="2" t="s">
         <v>3207</v>
@@ -46919,13 +46842,13 @@
         <v>3891</v>
       </c>
       <c r="D1051" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E1051" s="5" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
       <c r="F1051" s="5" t="s">
-        <v>3939</v>
+        <v>3937</v>
       </c>
       <c r="H1051" s="2" t="s">
         <v>3208</v>
@@ -46945,10 +46868,10 @@
         <v>3891</v>
       </c>
       <c r="D1052" s="10" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="E1052" s="5" t="s">
-        <v>3940</v>
+        <v>3938</v>
       </c>
       <c r="H1052" s="2" t="s">
         <v>3209</v>
@@ -46968,13 +46891,13 @@
         <v>3891</v>
       </c>
       <c r="D1053" s="10" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E1053" s="5" t="s">
-        <v>3940</v>
+        <v>3938</v>
       </c>
       <c r="F1053" s="5" t="s">
-        <v>3941</v>
+        <v>3939</v>
       </c>
       <c r="H1053" s="2" t="s">
         <v>3210</v>
@@ -46997,7 +46920,7 @@
         <v>3888</v>
       </c>
       <c r="E1054" s="5" t="s">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="F1054" s="5"/>
       <c r="G1054" s="5"/>
@@ -47019,7 +46942,7 @@
       <c r="C1055" s="10"/>
       <c r="D1055" s="10"/>
       <c r="E1055" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H1055" s="2"/>
     </row>
@@ -47033,7 +46956,7 @@
       <c r="C1056" s="10"/>
       <c r="D1056" s="10"/>
       <c r="E1056" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H1056" s="2"/>
     </row>
@@ -47047,7 +46970,7 @@
       <c r="C1057" s="10"/>
       <c r="D1057" s="10"/>
       <c r="E1057" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H1057" s="2"/>
     </row>
@@ -47062,10 +46985,10 @@
         <v>3891</v>
       </c>
       <c r="D1058" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E1058" s="5" t="s">
-        <v>3944</v>
+        <v>3942</v>
       </c>
       <c r="F1058" s="5"/>
       <c r="G1058" s="5"/>
@@ -47087,7 +47010,7 @@
       <c r="C1059" s="10"/>
       <c r="D1059" s="10"/>
       <c r="F1059" s="5" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="H1059" s="2"/>
     </row>
@@ -47101,7 +47024,7 @@
       <c r="C1060" s="9"/>
       <c r="D1060" s="9"/>
       <c r="E1060" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1060" s="5"/>
       <c r="G1060" s="5"/>
@@ -47123,7 +47046,7 @@
       <c r="C1061" s="10"/>
       <c r="D1061" s="10"/>
       <c r="E1061" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H1061" s="2"/>
     </row>
@@ -47138,10 +47061,10 @@
         <v>3891</v>
       </c>
       <c r="D1062" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E1062" s="5" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
       <c r="F1062" s="5"/>
       <c r="G1062" s="5"/>
@@ -47175,10 +47098,10 @@
         <v>3891</v>
       </c>
       <c r="D1064" s="10" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="E1064" s="5" t="s">
-        <v>3983</v>
+        <v>3981</v>
       </c>
       <c r="H1064" s="2" t="s">
         <v>3214</v>
@@ -47201,10 +47124,10 @@
         <v>3888</v>
       </c>
       <c r="E1065" s="5" t="s">
-        <v>3942</v>
+        <v>3940</v>
       </c>
       <c r="F1065" s="5" t="s">
-        <v>3943</v>
+        <v>3941</v>
       </c>
       <c r="G1065" s="5"/>
       <c r="H1065" s="2" t="s">
@@ -47225,7 +47148,7 @@
       <c r="C1066" s="10"/>
       <c r="D1066" s="10"/>
       <c r="F1066" s="5" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
       <c r="H1066" s="2" t="s">
         <v>3216</v>
@@ -47245,10 +47168,10 @@
         <v>3891</v>
       </c>
       <c r="D1067" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E1067" s="5" t="s">
-        <v>3991</v>
+        <v>3989</v>
       </c>
       <c r="F1067" s="5"/>
       <c r="G1067" s="5"/>
@@ -47271,7 +47194,7 @@
       <c r="D1068" s="9"/>
       <c r="E1068" s="5"/>
       <c r="F1068" s="5" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
       <c r="G1068" s="5"/>
       <c r="H1068" s="2" t="s">
@@ -47293,10 +47216,10 @@
         <v>3891</v>
       </c>
       <c r="D1069" s="9" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E1069" s="5" t="s">
-        <v>3991</v>
+        <v>3989</v>
       </c>
       <c r="H1069" s="2" t="s">
         <v>3219</v>
@@ -47869,7 +47792,7 @@
         <v>2256</v>
       </c>
       <c r="C1102" s="10" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
       <c r="D1102" s="10"/>
       <c r="H1102" s="2" t="s">
@@ -48959,7 +48882,7 @@
       <c r="C1164" s="9"/>
       <c r="D1164" s="9"/>
       <c r="E1164" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1164" s="5"/>
       <c r="G1164" s="5"/>
@@ -48981,7 +48904,7 @@
       <c r="C1165" s="9"/>
       <c r="D1165" s="9"/>
       <c r="E1165" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1165" s="5"/>
       <c r="G1165" s="5"/>
@@ -49019,7 +48942,7 @@
       <c r="C1167" s="9"/>
       <c r="D1167" s="9"/>
       <c r="E1167" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1167" s="5"/>
       <c r="G1167" s="5"/>
@@ -49041,7 +48964,7 @@
       <c r="C1168" s="10"/>
       <c r="D1168" s="10"/>
       <c r="E1168" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H1168" s="2" t="s">
         <v>3308</v>
@@ -49060,7 +48983,7 @@
       <c r="C1169" s="10"/>
       <c r="D1169" s="10"/>
       <c r="E1169" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="H1169" s="2" t="s">
         <v>3309</v>
@@ -49079,7 +49002,7 @@
       <c r="C1170" s="9"/>
       <c r="D1170" s="9"/>
       <c r="E1170" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1170" s="5"/>
       <c r="G1170" s="5"/>
@@ -49101,10 +49024,10 @@
       <c r="C1171" s="9"/>
       <c r="D1171" s="9"/>
       <c r="E1171" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1171" s="5" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="G1171" s="5"/>
       <c r="H1171" s="2" t="s">
@@ -49125,7 +49048,7 @@
       <c r="C1172" s="9"/>
       <c r="D1172" s="9"/>
       <c r="E1172" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1172" s="5"/>
       <c r="G1172" s="5"/>
@@ -49147,7 +49070,7 @@
       <c r="C1173" s="9"/>
       <c r="D1173" s="9"/>
       <c r="E1173" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1173" s="5"/>
       <c r="G1173" s="5"/>
@@ -49169,7 +49092,7 @@
       <c r="C1174" s="9"/>
       <c r="D1174" s="9"/>
       <c r="E1174" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1174" s="5"/>
       <c r="G1174" s="5"/>
@@ -49191,7 +49114,7 @@
       <c r="C1175" s="9"/>
       <c r="D1175" s="9"/>
       <c r="E1175" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1175" s="5"/>
       <c r="G1175" s="5"/>
@@ -49213,7 +49136,7 @@
       <c r="C1176" s="9"/>
       <c r="D1176" s="9"/>
       <c r="E1176" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1176" s="5"/>
       <c r="G1176" s="5"/>
@@ -49235,7 +49158,7 @@
       <c r="C1177" s="9"/>
       <c r="D1177" s="9"/>
       <c r="E1177" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1177" s="5"/>
       <c r="G1177" s="5"/>
@@ -49257,7 +49180,7 @@
       <c r="C1178" s="9"/>
       <c r="D1178" s="9"/>
       <c r="E1178" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1178" s="5"/>
       <c r="G1178" s="5"/>
@@ -49279,7 +49202,7 @@
       <c r="C1179" s="9"/>
       <c r="D1179" s="9"/>
       <c r="E1179" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1179" s="5"/>
       <c r="G1179" s="5"/>
@@ -49301,7 +49224,7 @@
       <c r="C1180" s="9"/>
       <c r="D1180" s="9"/>
       <c r="E1180" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1180" s="5"/>
       <c r="G1180" s="5"/>
@@ -49323,10 +49246,10 @@
       <c r="C1181" s="9"/>
       <c r="D1181" s="9"/>
       <c r="E1181" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1181" s="5" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="G1181" s="5"/>
       <c r="H1181" s="2" t="s">
@@ -49347,7 +49270,7 @@
       <c r="C1182" s="9"/>
       <c r="D1182" s="9"/>
       <c r="E1182" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1182" s="5"/>
       <c r="G1182" s="5"/>
@@ -49369,7 +49292,7 @@
       <c r="C1183" s="9"/>
       <c r="D1183" s="9"/>
       <c r="E1183" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1183" s="5"/>
       <c r="G1183" s="5"/>
@@ -49391,7 +49314,7 @@
       <c r="C1184" s="9"/>
       <c r="D1184" s="9"/>
       <c r="E1184" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1184" s="5"/>
       <c r="G1184" s="5"/>
@@ -49413,7 +49336,7 @@
       <c r="C1185" s="9"/>
       <c r="D1185" s="9"/>
       <c r="E1185" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1185" s="5"/>
       <c r="G1185" s="5"/>
@@ -49435,10 +49358,10 @@
       <c r="C1186" s="9"/>
       <c r="D1186" s="9"/>
       <c r="E1186" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1186" s="5" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
       <c r="G1186" s="5"/>
       <c r="H1186" s="2" t="s">
@@ -49459,7 +49382,7 @@
       <c r="C1187" s="9"/>
       <c r="D1187" s="9"/>
       <c r="E1187" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1187" s="5"/>
       <c r="G1187" s="5"/>
@@ -49481,7 +49404,7 @@
       <c r="C1188" s="9"/>
       <c r="D1188" s="9"/>
       <c r="E1188" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1188" s="5"/>
       <c r="G1188" s="5"/>
@@ -49503,7 +49426,7 @@
       <c r="C1189" s="9"/>
       <c r="D1189" s="9"/>
       <c r="E1189" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1189" s="5"/>
       <c r="G1189" s="5"/>
@@ -49525,7 +49448,7 @@
       <c r="C1190" s="9"/>
       <c r="D1190" s="9"/>
       <c r="E1190" s="5" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="F1190" s="5"/>
       <c r="G1190" s="5"/>
@@ -49538,14 +49461,12 @@
       <c r="J1190" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E1190" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="41" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CNIST SP 800-53, Revision 5, Security and Privacy Controls for Information Systems and Organizations</oddHeader>
     <oddFooter>&amp;C&amp;P of &amp;N&amp;R2021-01-21</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -49554,7 +49475,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -49564,10 +49485,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="B1" t="s">
-        <v>3901</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -49580,7 +49501,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="B3" t="s">
         <v>3887</v>
@@ -49588,7 +49509,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
     </row>
   </sheetData>
@@ -49597,6 +49518,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058D05DE70B15C64EA9E4D75973090490" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e90b3b52420fe3743423b9e54e8fe0b6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="28d9da6b-33d1-4c3f-8988-b903e67ea3d6" xmlns:ns3="1b01f6de-bcf4-49e3-9541-5177bacee8ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78df2b17b148279c068d780039e5c9e9" ns2:_="" ns3:_="">
     <xsd:import namespace="28d9da6b-33d1-4c3f-8988-b903e67ea3d6"/>
@@ -49787,7 +49714,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -49796,13 +49723,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04AE39FD-D4E7-47B2-AA1A-226C61BB84B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="28d9da6b-33d1-4c3f-8988-b903e67ea3d6"/>
+    <ds:schemaRef ds:uri="1b01f6de-bcf4-49e3-9541-5177bacee8ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C17339B7-2F5E-475E-9DA9-B744350DE53F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49821,27 +49759,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{596F8612-BC05-4704-AE68-9546BBA867DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04AE39FD-D4E7-47B2-AA1A-226C61BB84B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="28d9da6b-33d1-4c3f-8988-b903e67ea3d6"/>
-    <ds:schemaRef ds:uri="1b01f6de-bcf4-49e3-9541-5177bacee8ff"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>